--- a/data/trans_orig/P32C-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P32C-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A6112515-27DC-4636-8E83-39E8E80F5092}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EAD0911B-8ABC-43ED-B478-07DE23E9CF65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{93FC7371-8E8F-4F53-A76C-55039A3F4A47}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{50D1835A-4F51-46A2-98F7-90FC767AFCB0}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="363">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="353">
   <si>
     <t>Población según si han bebido alguna vez para calmar los nervios o para evitar la resaca en 2007 (Tasa respuesta: 41,76%)</t>
   </si>
@@ -425,58 +425,46 @@
     <t>2,33%</t>
   </si>
   <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
   </si>
   <si>
     <t>0,56%</t>
   </si>
   <si>
-    <t>2,63%</t>
-  </si>
-  <si>
     <t>1,64%</t>
   </si>
   <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
+    <t>0,75%</t>
   </si>
   <si>
     <t>97,67%</t>
   </si>
   <si>
-    <t>95,25%</t>
-  </si>
-  <si>
-    <t>98,94%</t>
+    <t>95,14%</t>
+  </si>
+  <si>
+    <t>98,98%</t>
   </si>
   <si>
     <t>99,44%</t>
   </si>
   <si>
-    <t>97,37%</t>
-  </si>
-  <si>
     <t>98,36%</t>
   </si>
   <si>
-    <t>97,03%</t>
-  </si>
-  <si>
-    <t>99,26%</t>
+    <t>99,25%</t>
   </si>
   <si>
     <t>1,77%</t>
   </si>
   <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
   </si>
   <si>
     <t>0,95%</t>
@@ -485,649 +473,631 @@
     <t>1,22%</t>
   </si>
   <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>98,23%</t>
+  </si>
+  <si>
+    <t>96,49%</t>
+  </si>
+  <si>
+    <t>99,18%</t>
+  </si>
+  <si>
+    <t>99,05%</t>
+  </si>
+  <si>
+    <t>98,78%</t>
+  </si>
+  <si>
+    <t>97,55%</t>
+  </si>
+  <si>
+    <t>99,46%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>97,46%</t>
+  </si>
+  <si>
+    <t>95,52%</t>
+  </si>
+  <si>
+    <t>98,68%</t>
+  </si>
+  <si>
+    <t>99,14%</t>
+  </si>
+  <si>
+    <t>98,38%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>95,37%</t>
+  </si>
+  <si>
+    <t>98,91%</t>
+  </si>
+  <si>
+    <t>98,41%</t>
+  </si>
+  <si>
+    <t>96,78%</t>
+  </si>
+  <si>
+    <t>99,31%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>6,33%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>98,85%</t>
+  </si>
+  <si>
+    <t>96,71%</t>
+  </si>
+  <si>
+    <t>99,64%</t>
+  </si>
+  <si>
+    <t>93,67%</t>
+  </si>
+  <si>
+    <t>98,64%</t>
+  </si>
+  <si>
+    <t>96,8%</t>
+  </si>
+  <si>
+    <t>99,52%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>98,71%</t>
+  </si>
+  <si>
+    <t>96,44%</t>
+  </si>
+  <si>
+    <t>97,38%</t>
+  </si>
+  <si>
+    <t>99,03%</t>
+  </si>
+  <si>
+    <t>99,69%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>97,99%</t>
+  </si>
+  <si>
+    <t>97,35%</t>
+  </si>
+  <si>
+    <t>98,6%</t>
+  </si>
+  <si>
+    <t>99,9%</t>
+  </si>
+  <si>
+    <t>98,57%</t>
+  </si>
+  <si>
+    <t>98,05%</t>
+  </si>
+  <si>
+    <t>Población según si han bebido alguna vez para calmar los nervios o para evitar la resaca en 2015 (Tasa respuesta: 44,97%)</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>98,65%</t>
+  </si>
+  <si>
+    <t>96,11%</t>
+  </si>
+  <si>
+    <t>99,61%</t>
+  </si>
+  <si>
+    <t>98,88%</t>
+  </si>
+  <si>
+    <t>99,19%</t>
+  </si>
+  <si>
+    <t>97,74%</t>
+  </si>
+  <si>
+    <t>99,77%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>96,07%</t>
+  </si>
+  <si>
+    <t>95,98%</t>
+  </si>
+  <si>
+    <t>99,58%</t>
+  </si>
+  <si>
+    <t>98,27%</t>
+  </si>
+  <si>
+    <t>97,0%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>97,59%</t>
+  </si>
+  <si>
+    <t>99,76%</t>
+  </si>
+  <si>
+    <t>99,22%</t>
+  </si>
+  <si>
+    <t>99,34%</t>
+  </si>
+  <si>
+    <t>98,33%</t>
+  </si>
+  <si>
+    <t>99,85%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>97,2%</t>
+  </si>
+  <si>
+    <t>99,72%</t>
+  </si>
+  <si>
+    <t>96,79%</t>
+  </si>
+  <si>
+    <t>98,86%</t>
+  </si>
+  <si>
+    <t>97,64%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>97,18%</t>
+  </si>
+  <si>
+    <t>94,32%</t>
+  </si>
+  <si>
+    <t>98,8%</t>
+  </si>
+  <si>
+    <t>96,35%</t>
+  </si>
+  <si>
+    <t>99,17%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>95,99%</t>
+  </si>
+  <si>
+    <t>99,33%</t>
+  </si>
+  <si>
+    <t>97,8%</t>
+  </si>
+  <si>
+    <t>97,06%</t>
+  </si>
+  <si>
+    <t>99,51%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
     <t>0,55%</t>
   </si>
   <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>98,23%</t>
-  </si>
-  <si>
-    <t>96,64%</t>
-  </si>
-  <si>
-    <t>99,21%</t>
-  </si>
-  <si>
-    <t>99,05%</t>
-  </si>
-  <si>
-    <t>98,78%</t>
-  </si>
-  <si>
-    <t>97,42%</t>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>98,39%</t>
+  </si>
+  <si>
+    <t>97,75%</t>
   </si>
   <si>
     <t>99,45%</t>
   </si>
   <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>97,46%</t>
-  </si>
-  <si>
-    <t>95,35%</t>
-  </si>
-  <si>
-    <t>98,61%</t>
-  </si>
-  <si>
-    <t>99,14%</t>
-  </si>
-  <si>
-    <t>98,38%</t>
-  </si>
-  <si>
-    <t>97,12%</t>
-  </si>
-  <si>
-    <t>99,17%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>97,55%</t>
-  </si>
-  <si>
-    <t>94,99%</t>
-  </si>
-  <si>
-    <t>98,98%</t>
-  </si>
-  <si>
-    <t>98,41%</t>
-  </si>
-  <si>
-    <t>96,98%</t>
-  </si>
-  <si>
-    <t>99,31%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>6,35%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
+    <t>98,82%</t>
+  </si>
+  <si>
+    <t>99,74%</t>
+  </si>
+  <si>
+    <t>98,77%</t>
+  </si>
+  <si>
+    <t>99,12%</t>
+  </si>
+  <si>
+    <t>Población según si han bebido alguna vez para calmar los nervios o para evitar la resaca en 2023 (Tasa respuesta: 31,93%)</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>13,65%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>5,66%</t>
+  </si>
+  <si>
+    <t>97,3%</t>
+  </si>
+  <si>
+    <t>95,95%</t>
+  </si>
+  <si>
+    <t>86,35%</t>
+  </si>
+  <si>
+    <t>94,34%</t>
+  </si>
+  <si>
+    <t>99,94%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>99,16%</t>
+  </si>
+  <si>
+    <t>96,6%</t>
+  </si>
+  <si>
+    <t>97,44%</t>
+  </si>
+  <si>
+    <t>99,62%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>97,28%</t>
+  </si>
+  <si>
+    <t>99,41%</t>
+  </si>
+  <si>
+    <t>99,4%</t>
+  </si>
+  <si>
+    <t>98,45%</t>
+  </si>
+  <si>
+    <t>99,81%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>97,4%</t>
+  </si>
+  <si>
+    <t>94,96%</t>
+  </si>
+  <si>
+    <t>98,73%</t>
+  </si>
+  <si>
+    <t>98,29%</t>
+  </si>
+  <si>
+    <t>95,94%</t>
+  </si>
+  <si>
+    <t>97,71%</t>
+  </si>
+  <si>
+    <t>95,96%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
   </si>
   <si>
     <t>0,52%</t>
   </si>
   <si>
-    <t>98,85%</t>
-  </si>
-  <si>
-    <t>96,84%</t>
-  </si>
-  <si>
-    <t>99,65%</t>
-  </si>
-  <si>
-    <t>93,65%</t>
-  </si>
-  <si>
-    <t>98,64%</t>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>98,1%</t>
+  </si>
+  <si>
+    <t>96,33%</t>
+  </si>
+  <si>
+    <t>97,73%</t>
   </si>
   <si>
     <t>99,48%</t>
   </si>
   <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>98,71%</t>
-  </si>
-  <si>
-    <t>96,44%</t>
-  </si>
-  <si>
-    <t>97,38%</t>
-  </si>
-  <si>
-    <t>99,03%</t>
-  </si>
-  <si>
-    <t>97,4%</t>
-  </si>
-  <si>
-    <t>99,69%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>97,99%</t>
-  </si>
-  <si>
-    <t>97,23%</t>
-  </si>
-  <si>
-    <t>98,5%</t>
-  </si>
-  <si>
-    <t>99,22%</t>
-  </si>
-  <si>
-    <t>99,9%</t>
-  </si>
-  <si>
-    <t>98,57%</t>
-  </si>
-  <si>
-    <t>98,09%</t>
-  </si>
-  <si>
-    <t>Población según si han bebido alguna vez para calmar los nervios o para evitar la resaca en 2015 (Tasa respuesta: 44,97%)</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>98,65%</t>
-  </si>
-  <si>
-    <t>96,17%</t>
-  </si>
-  <si>
-    <t>99,62%</t>
-  </si>
-  <si>
-    <t>98,88%</t>
-  </si>
-  <si>
-    <t>99,19%</t>
-  </si>
-  <si>
-    <t>99,77%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>98,05%</t>
-  </si>
-  <si>
-    <t>96,29%</t>
-  </si>
-  <si>
-    <t>96,4%</t>
-  </si>
-  <si>
-    <t>98,27%</t>
-  </si>
-  <si>
-    <t>96,91%</t>
-  </si>
-  <si>
-    <t>99,13%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>97,5%</t>
-  </si>
-  <si>
-    <t>99,76%</t>
-  </si>
-  <si>
-    <t>99,34%</t>
-  </si>
-  <si>
-    <t>98,34%</t>
-  </si>
-  <si>
-    <t>99,85%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>98,91%</t>
-  </si>
-  <si>
-    <t>97,51%</t>
-  </si>
-  <si>
-    <t>99,73%</t>
-  </si>
-  <si>
-    <t>98,86%</t>
-  </si>
-  <si>
-    <t>97,7%</t>
-  </si>
-  <si>
-    <t>99,51%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>97,18%</t>
-  </si>
-  <si>
-    <t>94,33%</t>
-  </si>
-  <si>
-    <t>98,81%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>96,01%</t>
-  </si>
-  <si>
-    <t>99,33%</t>
-  </si>
-  <si>
-    <t>97,8%</t>
-  </si>
-  <si>
-    <t>97,22%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>98,39%</t>
-  </si>
-  <si>
-    <t>97,76%</t>
-  </si>
-  <si>
-    <t>99,81%</t>
-  </si>
-  <si>
-    <t>98,77%</t>
-  </si>
-  <si>
-    <t>98,33%</t>
-  </si>
-  <si>
-    <t>Población según si han bebido alguna vez para calmar los nervios o para evitar la resaca en 2023 (Tasa respuesta: 31,93%)</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>13,9%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>97,3%</t>
-  </si>
-  <si>
-    <t>95,95%</t>
-  </si>
-  <si>
-    <t>86,1%</t>
-  </si>
-  <si>
-    <t>94,37%</t>
-  </si>
-  <si>
-    <t>99,94%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>96,71%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>96,46%</t>
-  </si>
-  <si>
-    <t>99,6%</t>
-  </si>
-  <si>
-    <t>99,16%</t>
-  </si>
-  <si>
-    <t>96,87%</t>
-  </si>
-  <si>
-    <t>97,56%</t>
-  </si>
-  <si>
-    <t>99,63%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>97,43%</t>
-  </si>
-  <si>
-    <t>99,41%</t>
-  </si>
-  <si>
-    <t>99,4%</t>
-  </si>
-  <si>
-    <t>98,48%</t>
-  </si>
-  <si>
-    <t>99,83%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>94,77%</t>
-  </si>
-  <si>
-    <t>98,76%</t>
-  </si>
-  <si>
-    <t>98,29%</t>
-  </si>
-  <si>
-    <t>95,65%</t>
-  </si>
-  <si>
-    <t>99,52%</t>
-  </si>
-  <si>
-    <t>97,71%</t>
-  </si>
-  <si>
-    <t>95,9%</t>
-  </si>
-  <si>
-    <t>98,8%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>98,1%</t>
-  </si>
-  <si>
-    <t>98,99%</t>
-  </si>
-  <si>
-    <t>98,73%</t>
-  </si>
-  <si>
-    <t>97,64%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
   </si>
   <si>
     <t>1,16%</t>
   </si>
   <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>98,18%</t>
-  </si>
-  <si>
-    <t>99,18%</t>
-  </si>
-  <si>
-    <t>97,78%</t>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>98,17%</t>
+  </si>
+  <si>
+    <t>97,88%</t>
+  </si>
+  <si>
+    <t>99,55%</t>
   </si>
   <si>
     <t>98,84%</t>
   </si>
   <si>
-    <t>98,35%</t>
-  </si>
-  <si>
-    <t>99,2%</t>
+    <t>98,4%</t>
+  </si>
+  <si>
+    <t>99,23%</t>
   </si>
 </sst>
 </file>
@@ -1539,7 +1509,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF684CA2-9936-4BB1-84A5-4505C40431CE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DA2C59B-3258-49D7-8348-D533BA3D6813}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2758,7 +2728,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC111735-E5B8-4311-B32E-6751CF580E6B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C0F47F2-262C-4222-8EEE-934C7413B954}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2903,7 +2873,7 @@
         <v>15</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>131</v>
+        <v>11</v>
       </c>
       <c r="M4" s="7">
         <v>8</v>
@@ -2912,13 +2882,13 @@
         <v>7515</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="P4" s="7" t="s">
-        <v>133</v>
-      </c>
       <c r="Q4" s="7" t="s">
-        <v>134</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2933,13 +2903,13 @@
         <v>272036</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>137</v>
       </c>
       <c r="H5" s="7">
         <v>174</v>
@@ -2948,10 +2918,10 @@
         <v>179550</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>139</v>
+        <v>21</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>26</v>
@@ -2963,13 +2933,13 @@
         <v>451586</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>141</v>
+        <v>46</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3037,13 +3007,13 @@
         <v>8237</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -3058,7 +3028,7 @@
         <v>84</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="M7" s="7">
         <v>8</v>
@@ -3067,13 +3037,13 @@
         <v>8237</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3088,13 +3058,13 @@
         <v>456691</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="H8" s="7">
         <v>201</v>
@@ -3106,7 +3076,7 @@
         <v>26</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>30</v>
@@ -3118,13 +3088,13 @@
         <v>669128</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3192,13 +3162,13 @@
         <v>10830</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -3213,7 +3183,7 @@
         <v>84</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="M10" s="7">
         <v>11</v>
@@ -3222,13 +3192,13 @@
         <v>10830</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>162</v>
+        <v>140</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>163</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3243,13 +3213,13 @@
         <v>416371</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="H11" s="7">
         <v>222</v>
@@ -3261,7 +3231,7 @@
         <v>26</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>30</v>
@@ -3273,13 +3243,13 @@
         <v>658290</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>169</v>
+        <v>21</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>170</v>
+        <v>148</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3347,13 +3317,13 @@
         <v>9636</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>171</v>
+        <v>145</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>14</v>
+        <v>163</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -3368,7 +3338,7 @@
         <v>84</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>173</v>
+        <v>128</v>
       </c>
       <c r="M13" s="7">
         <v>8</v>
@@ -3377,13 +3347,13 @@
         <v>9636</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3398,13 +3368,13 @@
         <v>384472</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>177</v>
+        <v>151</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>24</v>
+        <v>169</v>
       </c>
       <c r="H14" s="7">
         <v>187</v>
@@ -3416,7 +3386,7 @@
         <v>26</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>179</v>
+        <v>135</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>30</v>
@@ -3428,13 +3398,13 @@
         <v>597863</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3502,13 +3472,13 @@
         <v>2621</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="H16" s="7">
         <v>2</v>
@@ -3523,7 +3493,7 @@
         <v>15</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="M16" s="7">
         <v>5</v>
@@ -3532,13 +3502,13 @@
         <v>4647</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3553,13 +3523,13 @@
         <v>225857</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="H17" s="7">
         <v>97</v>
@@ -3571,7 +3541,7 @@
         <v>121</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>26</v>
@@ -3583,13 +3553,13 @@
         <v>336024</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3657,13 +3627,13 @@
         <v>3093</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>98</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -3678,7 +3648,7 @@
         <v>84</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="M19" s="7">
         <v>3</v>
@@ -3687,13 +3657,13 @@
         <v>3093</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>200</v>
+        <v>11</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3708,10 +3678,10 @@
         <v>235889</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>105</v>
@@ -3726,7 +3696,7 @@
         <v>26</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>30</v>
@@ -3738,13 +3708,13 @@
         <v>315935</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>205</v>
+        <v>21</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>206</v>
+        <v>196</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3812,13 +3782,13 @@
         <v>40920</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>207</v>
+        <v>197</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>208</v>
+        <v>198</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>209</v>
+        <v>199</v>
       </c>
       <c r="H22" s="7">
         <v>3</v>
@@ -3830,10 +3800,10 @@
         <v>65</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>211</v>
+        <v>156</v>
       </c>
       <c r="M22" s="7">
         <v>43</v>
@@ -3842,13 +3812,13 @@
         <v>43958</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>212</v>
+        <v>201</v>
       </c>
       <c r="P22" s="7" t="s">
         <v>87</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3863,13 +3833,13 @@
         <v>1991315</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>214</v>
+        <v>203</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>215</v>
+        <v>204</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>216</v>
+        <v>205</v>
       </c>
       <c r="H23" s="7">
         <v>953</v>
@@ -3881,10 +3851,10 @@
         <v>74</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>217</v>
+        <v>161</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>218</v>
+        <v>206</v>
       </c>
       <c r="M23" s="7">
         <v>2824</v>
@@ -3893,10 +3863,10 @@
         <v>3028826</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>220</v>
+        <v>208</v>
       </c>
       <c r="Q23" s="7" t="s">
         <v>95</v>
@@ -3977,7 +3947,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4A74A90-A193-4505-9510-37B8DD8C937E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54DFF1F1-7828-4DCE-A9F2-DF2066D3F698}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3994,7 +3964,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>221</v>
+        <v>209</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4101,13 +4071,13 @@
         <v>3374</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>222</v>
+        <v>210</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>223</v>
+        <v>211</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -4122,7 +4092,7 @@
         <v>84</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>225</v>
+        <v>213</v>
       </c>
       <c r="M4" s="7">
         <v>3</v>
@@ -4131,13 +4101,13 @@
         <v>3374</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>226</v>
+        <v>214</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>227</v>
+        <v>215</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>37</v>
+        <v>216</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4152,13 +4122,13 @@
         <v>247176</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>228</v>
+        <v>217</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>229</v>
+        <v>218</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>230</v>
+        <v>219</v>
       </c>
       <c r="H5" s="7">
         <v>171</v>
@@ -4170,7 +4140,7 @@
         <v>26</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>231</v>
+        <v>220</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>30</v>
@@ -4182,13 +4152,13 @@
         <v>413893</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>232</v>
+        <v>221</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>45</v>
+        <v>222</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4256,13 +4226,13 @@
         <v>7097</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>234</v>
+        <v>202</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>162</v>
+        <v>140</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>235</v>
+        <v>224</v>
       </c>
       <c r="H7" s="7">
         <v>3</v>
@@ -4271,13 +4241,13 @@
         <v>3029</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>98</v>
+        <v>225</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>236</v>
+        <v>226</v>
       </c>
       <c r="M7" s="7">
         <v>10</v>
@@ -4286,13 +4256,13 @@
         <v>10127</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>237</v>
+        <v>227</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>238</v>
+        <v>156</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>239</v>
+        <v>228</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4307,13 +4277,13 @@
         <v>356183</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>240</v>
+        <v>208</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>170</v>
+        <v>148</v>
       </c>
       <c r="H8" s="7">
         <v>225</v>
@@ -4322,13 +4292,13 @@
         <v>220001</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>242</v>
+        <v>230</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>105</v>
+        <v>231</v>
       </c>
       <c r="M8" s="7">
         <v>569</v>
@@ -4337,13 +4307,13 @@
         <v>576183</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>243</v>
+        <v>232</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>244</v>
+        <v>233</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>245</v>
+        <v>161</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4414,10 +4384,10 @@
         <v>38</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>246</v>
+        <v>234</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>247</v>
+        <v>235</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -4432,7 +4402,7 @@
         <v>84</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>211</v>
+        <v>236</v>
       </c>
       <c r="M10" s="7">
         <v>4</v>
@@ -4441,13 +4411,13 @@
         <v>4421</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>248</v>
+        <v>237</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4465,10 +4435,10 @@
         <v>47</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>251</v>
+        <v>240</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>252</v>
+        <v>241</v>
       </c>
       <c r="H11" s="7">
         <v>246</v>
@@ -4480,7 +4450,7 @@
         <v>26</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>217</v>
+        <v>242</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>30</v>
@@ -4492,13 +4462,13 @@
         <v>670119</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4566,13 +4536,13 @@
         <v>4261</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>256</v>
+        <v>163</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>257</v>
+        <v>246</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>258</v>
+        <v>247</v>
       </c>
       <c r="H13" s="7">
         <v>3</v>
@@ -4584,10 +4554,10 @@
         <v>64</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>223</v>
+        <v>15</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>39</v>
+        <v>248</v>
       </c>
       <c r="M13" s="7">
         <v>7</v>
@@ -4596,13 +4566,13 @@
         <v>7441</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>259</v>
+        <v>249</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>260</v>
+        <v>178</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>261</v>
+        <v>250</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4617,13 +4587,13 @@
         <v>385315</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>262</v>
+        <v>169</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>263</v>
+        <v>251</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>264</v>
+        <v>252</v>
       </c>
       <c r="H14" s="7">
         <v>237</v>
@@ -4635,10 +4605,10 @@
         <v>72</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>46</v>
+        <v>253</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>230</v>
+        <v>26</v>
       </c>
       <c r="M14" s="7">
         <v>584</v>
@@ -4647,13 +4617,13 @@
         <v>644766</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>266</v>
+        <v>255</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>267</v>
+        <v>186</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4721,13 +4691,13 @@
         <v>7966</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>268</v>
+        <v>256</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>269</v>
+        <v>257</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>270</v>
+        <v>258</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -4742,7 +4712,7 @@
         <v>84</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>237</v>
+        <v>227</v>
       </c>
       <c r="M16" s="7">
         <v>7</v>
@@ -4751,13 +4721,13 @@
         <v>7966</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>234</v>
+        <v>202</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>162</v>
+        <v>259</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>99</v>
+        <v>260</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4772,13 +4742,13 @@
         <v>274685</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>271</v>
+        <v>261</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>272</v>
+        <v>262</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>273</v>
+        <v>263</v>
       </c>
       <c r="H17" s="7">
         <v>110</v>
@@ -4790,7 +4760,7 @@
         <v>26</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>243</v>
+        <v>232</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>30</v>
@@ -4802,13 +4772,13 @@
         <v>401205</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>240</v>
+        <v>208</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>104</v>
+        <v>264</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>170</v>
+        <v>265</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4879,10 +4849,10 @@
         <v>113</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -4897,7 +4867,7 @@
         <v>84</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="M19" s="7">
         <v>5</v>
@@ -4909,10 +4879,10 @@
         <v>110</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>260</v>
+        <v>269</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4930,10 +4900,10 @@
         <v>121</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="H20" s="7">
         <v>86</v>
@@ -4945,7 +4915,7 @@
         <v>26</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>30</v>
@@ -4960,10 +4930,10 @@
         <v>119</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>267</v>
+        <v>275</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5031,13 +5001,13 @@
         <v>31963</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>225</v>
+        <v>115</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="H22" s="7">
         <v>6</v>
@@ -5046,13 +5016,13 @@
         <v>6210</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>148</v>
+        <v>278</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>256</v>
+        <v>280</v>
       </c>
       <c r="M22" s="7">
         <v>36</v>
@@ -5061,13 +5031,13 @@
         <v>38173</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>160</v>
+        <v>282</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>286</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5082,13 +5052,13 @@
         <v>1949273</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>231</v>
+        <v>124</v>
       </c>
       <c r="H23" s="7">
         <v>1075</v>
@@ -5097,13 +5067,13 @@
         <v>1124004</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>156</v>
+        <v>285</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>262</v>
+        <v>286</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="M23" s="7">
         <v>2918</v>
@@ -5112,13 +5082,13 @@
         <v>3073277</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>291</v>
+        <v>42</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>167</v>
+        <v>289</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5196,7 +5166,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{220B3B66-8EC6-4C13-A540-9FF69654F50F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28234E9A-BDD5-4B6F-BED5-91CACF1FF6C1}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5213,7 +5183,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5326,7 +5296,7 @@
         <v>84</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="H4" s="7">
         <v>3</v>
@@ -5335,13 +5305,13 @@
         <v>4569</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="M4" s="7">
         <v>3</v>
@@ -5350,13 +5320,13 @@
         <v>4569</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>286</v>
+        <v>239</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5374,7 +5344,7 @@
         <v>26</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>30</v>
@@ -5386,13 +5356,13 @@
         <v>108261</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="M5" s="7">
         <v>134</v>
@@ -5401,13 +5371,13 @@
         <v>269476</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>291</v>
+        <v>244</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5481,7 +5451,7 @@
         <v>84</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="H7" s="7">
         <v>1</v>
@@ -5496,7 +5466,7 @@
         <v>15</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>303</v>
+        <v>11</v>
       </c>
       <c r="M7" s="7">
         <v>1</v>
@@ -5511,7 +5481,7 @@
         <v>15</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>286</v>
+        <v>97</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5529,7 +5499,7 @@
         <v>26</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>30</v>
@@ -5544,7 +5514,7 @@
         <v>60</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>304</v>
+        <v>21</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>26</v>
@@ -5559,7 +5529,7 @@
         <v>79</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>291</v>
+        <v>103</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>26</v>
@@ -5630,13 +5600,13 @@
         <v>3556</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>305</v>
+        <v>211</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>306</v>
+        <v>39</v>
       </c>
       <c r="H10" s="7">
         <v>2</v>
@@ -5645,13 +5615,13 @@
         <v>1353</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="M10" s="7">
         <v>5</v>
@@ -5660,13 +5630,13 @@
         <v>4909</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>256</v>
+        <v>163</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5681,13 +5651,13 @@
         <v>285067</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>311</v>
+        <v>46</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>312</v>
+        <v>219</v>
       </c>
       <c r="H11" s="7">
         <v>227</v>
@@ -5696,10 +5666,10 @@
         <v>158844</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>314</v>
+        <v>306</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>26</v>
@@ -5711,13 +5681,13 @@
         <v>443910</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>262</v>
+        <v>169</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>315</v>
+        <v>307</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5785,13 +5755,13 @@
         <v>3344</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>65</v>
+        <v>279</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -5806,7 +5776,7 @@
         <v>84</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>318</v>
+        <v>310</v>
       </c>
       <c r="M13" s="7">
         <v>4</v>
@@ -5815,13 +5785,13 @@
         <v>3344</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>319</v>
+        <v>311</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5836,13 +5806,13 @@
         <v>350345</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>74</v>
+        <v>287</v>
       </c>
       <c r="H14" s="7">
         <v>324</v>
@@ -5854,7 +5824,7 @@
         <v>26</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>30</v>
@@ -5866,13 +5836,13 @@
         <v>555435</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>326</v>
+        <v>318</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5940,13 +5910,13 @@
         <v>7227</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>200</v>
+        <v>319</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="H16" s="7">
         <v>4</v>
@@ -5955,13 +5925,13 @@
         <v>2475</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>330</v>
+        <v>98</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="M16" s="7">
         <v>12</v>
@@ -5970,13 +5940,13 @@
         <v>9702</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>333</v>
+        <v>110</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>334</v>
+        <v>325</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5991,13 +5961,13 @@
         <v>271200</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>205</v>
+        <v>326</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>336</v>
+        <v>328</v>
       </c>
       <c r="H17" s="7">
         <v>236</v>
@@ -6006,13 +5976,13 @@
         <v>142489</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>339</v>
+        <v>105</v>
       </c>
       <c r="M17" s="7">
         <v>533</v>
@@ -6021,13 +5991,13 @@
         <v>413689</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>340</v>
+        <v>331</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>341</v>
+        <v>332</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>342</v>
+        <v>119</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6095,13 +6065,13 @@
         <v>5848</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>343</v>
+        <v>333</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>344</v>
+        <v>142</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>235</v>
+        <v>334</v>
       </c>
       <c r="H19" s="7">
         <v>2</v>
@@ -6116,7 +6086,7 @@
         <v>15</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>55</v>
+        <v>131</v>
       </c>
       <c r="M19" s="7">
         <v>11</v>
@@ -6125,13 +6095,13 @@
         <v>6751</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>345</v>
+        <v>320</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>188</v>
+        <v>335</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>346</v>
+        <v>336</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6146,13 +6116,13 @@
         <v>302514</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>347</v>
+        <v>337</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>241</v>
+        <v>338</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>348</v>
+        <v>149</v>
       </c>
       <c r="H20" s="7">
         <v>202</v>
@@ -6164,7 +6134,7 @@
         <v>105</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>61</v>
+        <v>137</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>26</v>
@@ -6176,13 +6146,13 @@
         <v>523505</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>349</v>
+        <v>328</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>350</v>
+        <v>339</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>194</v>
+        <v>340</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6250,13 +6220,13 @@
         <v>19975</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>351</v>
+        <v>214</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>352</v>
+        <v>341</v>
       </c>
       <c r="H22" s="7">
         <v>12</v>
@@ -6268,10 +6238,10 @@
         <v>38</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>330</v>
+        <v>342</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>353</v>
+        <v>343</v>
       </c>
       <c r="M22" s="7">
         <v>36</v>
@@ -6280,13 +6250,13 @@
         <v>30214</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>354</v>
+        <v>344</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>355</v>
+        <v>345</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>356</v>
+        <v>346</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6298,16 +6268,16 @@
         <v>1563</v>
       </c>
       <c r="D23" s="7">
-        <v>1597733</v>
+        <v>1597732</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>357</v>
+        <v>347</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>358</v>
+        <v>221</v>
       </c>
       <c r="H23" s="7">
         <v>1193</v>
@@ -6319,25 +6289,25 @@
         <v>47</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>359</v>
+        <v>348</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>339</v>
+        <v>349</v>
       </c>
       <c r="M23" s="7">
         <v>2756</v>
       </c>
       <c r="N23" s="7">
-        <v>2584340</v>
+        <v>2584339</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>360</v>
+        <v>350</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>361</v>
+        <v>351</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>362</v>
+        <v>352</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6349,7 +6319,7 @@
         <v>1587</v>
       </c>
       <c r="D24" s="7">
-        <v>1617708</v>
+        <v>1617707</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>30</v>
@@ -6379,7 +6349,7 @@
         <v>2792</v>
       </c>
       <c r="N24" s="7">
-        <v>2614554</v>
+        <v>2614553</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>30</v>

--- a/data/trans_orig/P32C-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P32C-Edad-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EAD0911B-8ABC-43ED-B478-07DE23E9CF65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4DAD9929-D5DC-4D5A-8864-0D47674DF62D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{50D1835A-4F51-46A2-98F7-90FC767AFCB0}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{D1149AF2-1AAB-4D01-8FCC-39CE69A068D7}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="353">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="349">
   <si>
     <t>Población según si han bebido alguna vez para calmar los nervios o para evitar la resaca en 2007 (Tasa respuesta: 41,76%)</t>
   </si>
@@ -77,10 +77,10 @@
     <t>2,84%</t>
   </si>
   <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
   </si>
   <si>
     <t>1,31%</t>
@@ -89,903 +89,906 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>4,38%</t>
+    <t>4,41%</t>
   </si>
   <si>
     <t>2,23%</t>
   </si>
   <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>97,16%</t>
+  </si>
+  <si>
+    <t>94,64%</t>
+  </si>
+  <si>
+    <t>98,75%</t>
+  </si>
+  <si>
+    <t>98,69%</t>
+  </si>
+  <si>
+    <t>95,59%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>97,77%</t>
+  </si>
+  <si>
+    <t>96,12%</t>
+  </si>
+  <si>
+    <t>98,93%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>25/34</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
     <t>1,1%</t>
   </si>
   <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>97,16%</t>
-  </si>
-  <si>
-    <t>94,54%</t>
-  </si>
-  <si>
-    <t>98,67%</t>
-  </si>
-  <si>
-    <t>98,69%</t>
-  </si>
-  <si>
-    <t>95,62%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>97,77%</t>
-  </si>
-  <si>
-    <t>96,05%</t>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>97,83%</t>
+  </si>
+  <si>
+    <t>95,79%</t>
+  </si>
+  <si>
+    <t>98,89%</t>
+  </si>
+  <si>
+    <t>98,3%</t>
+  </si>
+  <si>
+    <t>95,03%</t>
+  </si>
+  <si>
+    <t>99,53%</t>
+  </si>
+  <si>
+    <t>97,97%</t>
+  </si>
+  <si>
+    <t>96,67%</t>
   </si>
   <si>
     <t>98,9%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
   </si>
   <si>
     <t>0,46%</t>
   </si>
   <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>99,28%</t>
+  </si>
+  <si>
+    <t>97,91%</t>
+  </si>
+  <si>
+    <t>99,78%</t>
+  </si>
+  <si>
+    <t>99,54%</t>
+  </si>
+  <si>
+    <t>97,73%</t>
+  </si>
+  <si>
+    <t>99,38%</t>
+  </si>
+  <si>
+    <t>98,49%</t>
+  </si>
+  <si>
+    <t>99,84%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>98,79%</t>
+  </si>
+  <si>
+    <t>96,27%</t>
+  </si>
+  <si>
+    <t>99,71%</t>
+  </si>
+  <si>
+    <t>99,3%</t>
+  </si>
+  <si>
+    <t>96,49%</t>
+  </si>
+  <si>
+    <t>98,95%</t>
+  </si>
+  <si>
+    <t>97,39%</t>
+  </si>
+  <si>
+    <t>99,76%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>7,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>96,5%</t>
+  </si>
+  <si>
+    <t>93,0%</t>
+  </si>
+  <si>
+    <t>98,52%</t>
+  </si>
+  <si>
+    <t>97,45%</t>
+  </si>
+  <si>
+    <t>97,54%</t>
+  </si>
+  <si>
+    <t>95,2%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>98,32%</t>
+  </si>
+  <si>
+    <t>99,59%</t>
+  </si>
+  <si>
+    <t>95,84%</t>
+  </si>
+  <si>
+    <t>98,63%</t>
+  </si>
+  <si>
+    <t>96,6%</t>
+  </si>
+  <si>
+    <t>99,6%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>98,12%</t>
+  </si>
+  <si>
+    <t>98,65%</t>
+  </si>
+  <si>
+    <t>99,09%</t>
+  </si>
+  <si>
+    <t>98,22%</t>
+  </si>
+  <si>
+    <t>98,43%</t>
+  </si>
+  <si>
+    <t>97,9%</t>
+  </si>
+  <si>
+    <t>98,84%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si han bebido alguna vez para calmar los nervios o para evitar la resaca en 2012 (Tasa respuesta: 44,06%)</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>97,67%</t>
+  </si>
+  <si>
+    <t>95,43%</t>
+  </si>
+  <si>
+    <t>99,05%</t>
+  </si>
+  <si>
+    <t>99,44%</t>
+  </si>
+  <si>
+    <t>96,82%</t>
+  </si>
+  <si>
+    <t>98,36%</t>
+  </si>
+  <si>
+    <t>96,78%</t>
+  </si>
+  <si>
+    <t>99,2%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>98,23%</t>
+  </si>
+  <si>
+    <t>96,42%</t>
+  </si>
+  <si>
+    <t>99,19%</t>
+  </si>
+  <si>
+    <t>98,78%</t>
+  </si>
+  <si>
+    <t>97,52%</t>
+  </si>
+  <si>
+    <t>99,45%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>97,46%</t>
+  </si>
+  <si>
+    <t>95,49%</t>
+  </si>
+  <si>
+    <t>99,14%</t>
+  </si>
+  <si>
+    <t>98,38%</t>
+  </si>
+  <si>
+    <t>97,03%</t>
+  </si>
+  <si>
+    <t>99,12%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>97,55%</t>
+  </si>
+  <si>
+    <t>95,0%</t>
+  </si>
+  <si>
+    <t>98,87%</t>
+  </si>
+  <si>
+    <t>98,98%</t>
+  </si>
+  <si>
+    <t>98,41%</t>
+  </si>
+  <si>
+    <t>96,77%</t>
+  </si>
+  <si>
+    <t>99,27%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>6,45%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>98,85%</t>
+  </si>
+  <si>
+    <t>96,74%</t>
+  </si>
+  <si>
+    <t>99,65%</t>
+  </si>
+  <si>
+    <t>98,19%</t>
+  </si>
+  <si>
+    <t>93,55%</t>
+  </si>
+  <si>
+    <t>98,64%</t>
+  </si>
+  <si>
+    <t>96,94%</t>
+  </si>
+  <si>
+    <t>99,47%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>98,71%</t>
+  </si>
+  <si>
+    <t>96,51%</t>
+  </si>
+  <si>
+    <t>97,38%</t>
+  </si>
+  <si>
+    <t>99,03%</t>
+  </si>
+  <si>
+    <t>97,35%</t>
+  </si>
+  <si>
+    <t>99,7%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
   </si>
   <si>
     <t>1,03%</t>
   </si>
   <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>97,99%</t>
+  </si>
+  <si>
+    <t>97,26%</t>
+  </si>
+  <si>
+    <t>99,18%</t>
+  </si>
+  <si>
+    <t>99,9%</t>
+  </si>
+  <si>
+    <t>98,57%</t>
+  </si>
+  <si>
+    <t>98,08%</t>
+  </si>
+  <si>
+    <t>98,97%</t>
+  </si>
+  <si>
+    <t>Población según si han bebido alguna vez para calmar los nervios o para evitar la resaca en 2016 (Tasa respuesta: 44,97%)</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>96,01%</t>
+  </si>
+  <si>
+    <t>99,61%</t>
+  </si>
+  <si>
+    <t>98,88%</t>
+  </si>
+  <si>
+    <t>97,57%</t>
+  </si>
+  <si>
+    <t>99,77%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>98,05%</t>
+  </si>
+  <si>
+    <t>96,13%</t>
+  </si>
+  <si>
+    <t>99,17%</t>
+  </si>
+  <si>
+    <t>96,21%</t>
+  </si>
+  <si>
+    <t>98,27%</t>
+  </si>
+  <si>
+    <t>96,99%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>99,22%</t>
+  </si>
+  <si>
+    <t>99,34%</t>
+  </si>
+  <si>
+    <t>98,28%</t>
+  </si>
+  <si>
+    <t>99,85%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
     <t>3,28%</t>
   </si>
   <si>
-    <t>97,83%</t>
-  </si>
-  <si>
-    <t>95,89%</t>
-  </si>
-  <si>
-    <t>98,3%</t>
-  </si>
-  <si>
-    <t>95,24%</t>
-  </si>
-  <si>
-    <t>99,54%</t>
-  </si>
-  <si>
-    <t>97,97%</t>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>98,91%</t>
+  </si>
+  <si>
+    <t>97,01%</t>
   </si>
   <si>
     <t>96,72%</t>
   </si>
   <si>
-    <t>98,97%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>99,28%</t>
-  </si>
-  <si>
-    <t>97,92%</t>
-  </si>
-  <si>
-    <t>99,78%</t>
-  </si>
-  <si>
-    <t>97,72%</t>
-  </si>
-  <si>
-    <t>99,38%</t>
-  </si>
-  <si>
-    <t>98,42%</t>
-  </si>
-  <si>
-    <t>99,84%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
+    <t>99,63%</t>
+  </si>
+  <si>
+    <t>98,86%</t>
+  </si>
+  <si>
+    <t>99,51%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>97,18%</t>
+  </si>
+  <si>
+    <t>94,7%</t>
+  </si>
+  <si>
+    <t>98,8%</t>
+  </si>
+  <si>
+    <t>96,35%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>97,8%</t>
+  </si>
+  <si>
+    <t>98,7%</t>
+  </si>
+  <si>
+    <t>99,5%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>98,39%</t>
+  </si>
+  <si>
+    <t>97,75%</t>
+  </si>
+  <si>
+    <t>99,81%</t>
+  </si>
+  <si>
+    <t>98,77%</t>
+  </si>
+  <si>
+    <t>98,33%</t>
+  </si>
+  <si>
+    <t>99,16%</t>
+  </si>
+  <si>
+    <t>Población según si han bebido alguna vez para calmar los nervios o para evitar la resaca en 2023 (Tasa respuesta: 31,93%)</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>13,65%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>5,66%</t>
+  </si>
+  <si>
+    <t>97,3%</t>
+  </si>
+  <si>
+    <t>95,95%</t>
+  </si>
+  <si>
+    <t>86,35%</t>
+  </si>
+  <si>
+    <t>94,34%</t>
+  </si>
+  <si>
+    <t>99,94%</t>
   </si>
   <si>
     <t>0,25%</t>
   </si>
   <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>98,79%</t>
-  </si>
-  <si>
-    <t>96,23%</t>
-  </si>
-  <si>
-    <t>99,71%</t>
-  </si>
-  <si>
-    <t>99,3%</t>
-  </si>
-  <si>
-    <t>97,13%</t>
-  </si>
-  <si>
-    <t>98,95%</t>
-  </si>
-  <si>
-    <t>97,27%</t>
-  </si>
-  <si>
     <t>99,75%</t>
   </si>
   <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>7,19%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>96,5%</t>
-  </si>
-  <si>
-    <t>92,81%</t>
-  </si>
-  <si>
-    <t>98,49%</t>
-  </si>
-  <si>
-    <t>97,45%</t>
-  </si>
-  <si>
-    <t>97,54%</t>
-  </si>
-  <si>
-    <t>95,2%</t>
-  </si>
-  <si>
-    <t>98,96%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>98,32%</t>
-  </si>
-  <si>
-    <t>95,84%</t>
-  </si>
-  <si>
-    <t>99,59%</t>
-  </si>
-  <si>
-    <t>98,63%</t>
-  </si>
-  <si>
-    <t>96,51%</t>
-  </si>
-  <si>
-    <t>99,67%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>98,12%</t>
-  </si>
-  <si>
-    <t>97,41%</t>
-  </si>
-  <si>
-    <t>98,7%</t>
-  </si>
-  <si>
-    <t>99,09%</t>
-  </si>
-  <si>
-    <t>98,19%</t>
-  </si>
-  <si>
-    <t>98,43%</t>
-  </si>
-  <si>
-    <t>97,91%</t>
-  </si>
-  <si>
-    <t>98,87%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si han bebido alguna vez para calmar los nervios o para evitar la resaca en 2012 (Tasa respuesta: 44,06%)</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>97,67%</t>
-  </si>
-  <si>
-    <t>95,14%</t>
-  </si>
-  <si>
-    <t>98,98%</t>
-  </si>
-  <si>
-    <t>99,44%</t>
-  </si>
-  <si>
-    <t>98,36%</t>
-  </si>
-  <si>
-    <t>99,25%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>98,23%</t>
-  </si>
-  <si>
-    <t>96,49%</t>
-  </si>
-  <si>
-    <t>99,18%</t>
-  </si>
-  <si>
-    <t>99,05%</t>
-  </si>
-  <si>
-    <t>98,78%</t>
-  </si>
-  <si>
-    <t>97,55%</t>
-  </si>
-  <si>
-    <t>99,46%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>97,46%</t>
-  </si>
-  <si>
-    <t>95,52%</t>
-  </si>
-  <si>
-    <t>98,68%</t>
-  </si>
-  <si>
-    <t>99,14%</t>
-  </si>
-  <si>
-    <t>98,38%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>95,37%</t>
-  </si>
-  <si>
-    <t>98,91%</t>
-  </si>
-  <si>
-    <t>98,41%</t>
-  </si>
-  <si>
-    <t>96,78%</t>
-  </si>
-  <si>
-    <t>99,31%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>6,33%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>98,85%</t>
-  </si>
-  <si>
-    <t>96,71%</t>
-  </si>
-  <si>
-    <t>99,64%</t>
-  </si>
-  <si>
-    <t>93,67%</t>
-  </si>
-  <si>
-    <t>98,64%</t>
-  </si>
-  <si>
-    <t>96,8%</t>
-  </si>
-  <si>
-    <t>99,52%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>98,71%</t>
-  </si>
-  <si>
-    <t>96,44%</t>
-  </si>
-  <si>
-    <t>97,38%</t>
-  </si>
-  <si>
-    <t>99,03%</t>
-  </si>
-  <si>
-    <t>99,69%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>97,99%</t>
-  </si>
-  <si>
-    <t>97,35%</t>
-  </si>
-  <si>
-    <t>98,6%</t>
-  </si>
-  <si>
-    <t>99,9%</t>
-  </si>
-  <si>
-    <t>98,57%</t>
-  </si>
-  <si>
-    <t>98,05%</t>
-  </si>
-  <si>
-    <t>Población según si han bebido alguna vez para calmar los nervios o para evitar la resaca en 2015 (Tasa respuesta: 44,97%)</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>98,65%</t>
-  </si>
-  <si>
-    <t>96,11%</t>
-  </si>
-  <si>
-    <t>99,61%</t>
-  </si>
-  <si>
-    <t>98,88%</t>
-  </si>
-  <si>
-    <t>99,19%</t>
-  </si>
-  <si>
-    <t>97,74%</t>
-  </si>
-  <si>
-    <t>99,77%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>96,07%</t>
-  </si>
-  <si>
-    <t>95,98%</t>
-  </si>
-  <si>
-    <t>99,58%</t>
-  </si>
-  <si>
-    <t>98,27%</t>
-  </si>
-  <si>
-    <t>97,0%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>97,59%</t>
-  </si>
-  <si>
-    <t>99,76%</t>
-  </si>
-  <si>
-    <t>99,22%</t>
-  </si>
-  <si>
-    <t>99,34%</t>
-  </si>
-  <si>
-    <t>98,33%</t>
-  </si>
-  <si>
-    <t>99,85%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>97,2%</t>
-  </si>
-  <si>
-    <t>99,72%</t>
-  </si>
-  <si>
-    <t>96,79%</t>
-  </si>
-  <si>
-    <t>98,86%</t>
-  </si>
-  <si>
-    <t>97,64%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>97,18%</t>
-  </si>
-  <si>
-    <t>94,32%</t>
-  </si>
-  <si>
-    <t>98,8%</t>
-  </si>
-  <si>
-    <t>96,35%</t>
-  </si>
-  <si>
-    <t>99,17%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>95,99%</t>
-  </si>
-  <si>
-    <t>99,33%</t>
-  </si>
-  <si>
-    <t>97,8%</t>
-  </si>
-  <si>
-    <t>97,06%</t>
-  </si>
-  <si>
-    <t>99,51%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>97,44%</t>
+  </si>
+  <si>
+    <t>99,62%</t>
   </si>
   <si>
     <t>0,26%</t>
   </si>
   <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>98,39%</t>
-  </si>
-  <si>
-    <t>97,75%</t>
-  </si>
-  <si>
-    <t>99,45%</t>
-  </si>
-  <si>
-    <t>98,82%</t>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>97,28%</t>
   </si>
   <si>
     <t>99,74%</t>
   </si>
   <si>
-    <t>98,77%</t>
-  </si>
-  <si>
-    <t>99,12%</t>
-  </si>
-  <si>
-    <t>Población según si han bebido alguna vez para calmar los nervios o para evitar la resaca en 2023 (Tasa respuesta: 31,93%)</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>13,65%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>5,66%</t>
-  </si>
-  <si>
-    <t>97,3%</t>
-  </si>
-  <si>
-    <t>95,95%</t>
-  </si>
-  <si>
-    <t>86,35%</t>
-  </si>
-  <si>
-    <t>94,34%</t>
-  </si>
-  <si>
-    <t>99,94%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>99,16%</t>
-  </si>
-  <si>
-    <t>96,6%</t>
-  </si>
-  <si>
-    <t>97,44%</t>
-  </si>
-  <si>
-    <t>99,62%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>97,28%</t>
-  </si>
-  <si>
     <t>99,41%</t>
   </si>
   <si>
@@ -995,9 +998,6 @@
     <t>98,45%</t>
   </si>
   <si>
-    <t>99,81%</t>
-  </si>
-  <si>
     <t>2,6%</t>
   </si>
   <si>
@@ -1049,18 +1049,12 @@
     <t>0,52%</t>
   </si>
   <si>
-    <t>2,27%</t>
-  </si>
-  <si>
     <t>98,1%</t>
   </si>
   <si>
     <t>96,33%</t>
   </si>
   <si>
-    <t>97,73%</t>
-  </si>
-  <si>
     <t>99,48%</t>
   </si>
   <si>
@@ -1073,9 +1067,6 @@
     <t>2,12%</t>
   </si>
   <si>
-    <t>1,16%</t>
-  </si>
-  <si>
     <t>0,77%</t>
   </si>
   <si>
@@ -1089,9 +1080,6 @@
   </si>
   <si>
     <t>99,55%</t>
-  </si>
-  <si>
-    <t>98,84%</t>
   </si>
   <si>
     <t>98,4%</t>
@@ -1509,7 +1497,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DA2C59B-3258-49D7-8348-D533BA3D6813}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EBE539F-B7F8-4EB5-86E1-CD1D8F6FD3D3}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1791,10 +1779,10 @@
         <v>32</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H7" s="7">
         <v>3</v>
@@ -1803,13 +1791,13 @@
         <v>3703</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="M7" s="7">
         <v>13</v>
@@ -1818,13 +1806,13 @@
         <v>14588</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1839,13 +1827,13 @@
         <v>490011</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="H8" s="7">
         <v>201</v>
@@ -1854,13 +1842,13 @@
         <v>214573</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="M8" s="7">
         <v>675</v>
@@ -1869,13 +1857,13 @@
         <v>704583</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1931,7 +1919,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -1943,13 +1931,13 @@
         <v>2888</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="H10" s="7">
         <v>1</v>
@@ -1958,13 +1946,13 @@
         <v>1018</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="M10" s="7">
         <v>4</v>
@@ -1973,13 +1961,13 @@
         <v>3905</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1994,13 +1982,13 @@
         <v>398902</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="H11" s="7">
         <v>215</v>
@@ -2009,10 +1997,10 @@
         <v>222317</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>44</v>
+        <v>62</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>26</v>
@@ -2024,13 +2012,13 @@
         <v>621220</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2086,7 +2074,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -2098,13 +2086,13 @@
         <v>3794</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="H13" s="7">
         <v>1</v>
@@ -2113,13 +2101,13 @@
         <v>1013</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="M13" s="7">
         <v>4</v>
@@ -2128,13 +2116,13 @@
         <v>4807</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2149,13 +2137,13 @@
         <v>309700</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="H14" s="7">
         <v>138</v>
@@ -2164,10 +2152,10 @@
         <v>144190</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>26</v>
@@ -2179,13 +2167,13 @@
         <v>453890</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2241,7 +2229,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2253,13 +2241,13 @@
         <v>6295</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -2271,10 +2259,10 @@
         <v>15</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="M16" s="7">
         <v>7</v>
@@ -2283,13 +2271,13 @@
         <v>6295</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>87</v>
+        <v>73</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2304,13 +2292,13 @@
         <v>173797</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="H17" s="7">
         <v>74</v>
@@ -2322,7 +2310,7 @@
         <v>26</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>30</v>
@@ -2334,13 +2322,13 @@
         <v>249232</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2396,7 +2384,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2408,13 +2396,13 @@
         <v>3416</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>99</v>
+        <v>16</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -2426,10 +2414,10 @@
         <v>15</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="M19" s="7">
         <v>4</v>
@@ -2438,13 +2426,13 @@
         <v>3416</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2459,13 +2447,13 @@
         <v>199518</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>104</v>
+        <v>25</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="H20" s="7">
         <v>45</v>
@@ -2477,7 +2465,7 @@
         <v>26</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>30</v>
@@ -2489,13 +2477,13 @@
         <v>245436</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2563,13 +2551,13 @@
         <v>35262</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>111</v>
+        <v>89</v>
       </c>
       <c r="H22" s="7">
         <v>7</v>
@@ -2578,13 +2566,13 @@
         <v>8180</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="M22" s="7">
         <v>42</v>
@@ -2593,13 +2581,13 @@
         <v>43443</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2614,10 +2602,10 @@
         <v>1844656</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>118</v>
+        <v>95</v>
       </c>
       <c r="G23" s="7" t="s">
         <v>119</v>
@@ -2635,7 +2623,7 @@
         <v>121</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="M23" s="7">
         <v>2677</v>
@@ -2728,7 +2716,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C0F47F2-262C-4222-8EEE-934C7413B954}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE65F3A9-DCFC-4156-9DD6-68EE6A4C5870}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2873,7 +2861,7 @@
         <v>15</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>11</v>
+        <v>131</v>
       </c>
       <c r="M4" s="7">
         <v>8</v>
@@ -2882,13 +2870,13 @@
         <v>7515</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>39</v>
+        <v>134</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2903,13 +2891,13 @@
         <v>272036</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="H5" s="7">
         <v>174</v>
@@ -2918,10 +2906,10 @@
         <v>179550</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>21</v>
+        <v>139</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>26</v>
@@ -2933,13 +2921,13 @@
         <v>451586</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>46</v>
+        <v>141</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3007,13 +2995,13 @@
         <v>8237</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -3025,10 +3013,10 @@
         <v>15</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>142</v>
+        <v>128</v>
       </c>
       <c r="M7" s="7">
         <v>8</v>
@@ -3037,13 +3025,13 @@
         <v>8237</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3058,13 +3046,13 @@
         <v>456691</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="H8" s="7">
         <v>201</v>
@@ -3076,7 +3064,7 @@
         <v>26</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>30</v>
@@ -3088,13 +3076,13 @@
         <v>669128</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3150,7 +3138,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -3162,13 +3150,13 @@
         <v>10830</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>154</v>
+        <v>14</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -3180,10 +3168,10 @@
         <v>15</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="M10" s="7">
         <v>11</v>
@@ -3192,13 +3180,13 @@
         <v>10830</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>11</v>
+        <v>160</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3213,13 +3201,13 @@
         <v>416371</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>160</v>
+        <v>24</v>
       </c>
       <c r="H11" s="7">
         <v>222</v>
@@ -3231,7 +3219,7 @@
         <v>26</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>30</v>
@@ -3243,13 +3231,13 @@
         <v>658290</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>21</v>
+        <v>165</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>148</v>
+        <v>166</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3305,7 +3293,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -3317,13 +3305,13 @@
         <v>9636</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>145</v>
+        <v>167</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -3335,10 +3323,10 @@
         <v>15</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>128</v>
+        <v>170</v>
       </c>
       <c r="M13" s="7">
         <v>8</v>
@@ -3347,13 +3335,13 @@
         <v>9636</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3368,13 +3356,13 @@
         <v>384472</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>151</v>
+        <v>174</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="H14" s="7">
         <v>187</v>
@@ -3386,7 +3374,7 @@
         <v>26</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>135</v>
+        <v>177</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>30</v>
@@ -3398,13 +3386,13 @@
         <v>597863</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>170</v>
+        <v>178</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3460,7 +3448,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3472,13 +3460,13 @@
         <v>2621</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>173</v>
+        <v>181</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="H16" s="7">
         <v>2</v>
@@ -3487,13 +3475,13 @@
         <v>2026</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>113</v>
+        <v>184</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>176</v>
+        <v>185</v>
       </c>
       <c r="M16" s="7">
         <v>5</v>
@@ -3502,13 +3490,13 @@
         <v>4647</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>177</v>
+        <v>186</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>178</v>
+        <v>187</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>179</v>
+        <v>188</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3523,13 +3511,13 @@
         <v>225857</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>180</v>
+        <v>189</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>182</v>
+        <v>191</v>
       </c>
       <c r="H17" s="7">
         <v>97</v>
@@ -3538,10 +3526,10 @@
         <v>110168</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>121</v>
+        <v>192</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>26</v>
@@ -3553,13 +3541,13 @@
         <v>336024</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>184</v>
+        <v>194</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>186</v>
+        <v>196</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3615,7 +3603,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -3627,13 +3615,13 @@
         <v>3093</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>187</v>
+        <v>197</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>188</v>
+        <v>198</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -3645,10 +3633,10 @@
         <v>15</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>189</v>
+        <v>199</v>
       </c>
       <c r="M19" s="7">
         <v>3</v>
@@ -3657,13 +3645,13 @@
         <v>3093</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>191</v>
+        <v>201</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>11</v>
+        <v>202</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3678,13 +3666,13 @@
         <v>235889</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>192</v>
+        <v>203</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>193</v>
+        <v>204</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="H20" s="7">
         <v>72</v>
@@ -3696,7 +3684,7 @@
         <v>26</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>30</v>
@@ -3708,13 +3696,13 @@
         <v>315935</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>195</v>
+        <v>206</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>21</v>
+        <v>207</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>196</v>
+        <v>208</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3782,13 +3770,13 @@
         <v>40920</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>197</v>
+        <v>209</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>198</v>
+        <v>86</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>199</v>
+        <v>210</v>
       </c>
       <c r="H22" s="7">
         <v>3</v>
@@ -3797,13 +3785,13 @@
         <v>3038</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>200</v>
+        <v>211</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>156</v>
+        <v>212</v>
       </c>
       <c r="M22" s="7">
         <v>43</v>
@@ -3812,13 +3800,13 @@
         <v>43958</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>201</v>
+        <v>213</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>87</v>
+        <v>214</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>202</v>
+        <v>215</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3833,13 +3821,13 @@
         <v>1991315</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>203</v>
+        <v>216</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>204</v>
+        <v>217</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>205</v>
+        <v>94</v>
       </c>
       <c r="H23" s="7">
         <v>953</v>
@@ -3848,13 +3836,13 @@
         <v>1037511</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>161</v>
+        <v>218</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>206</v>
+        <v>219</v>
       </c>
       <c r="M23" s="7">
         <v>2824</v>
@@ -3863,13 +3851,13 @@
         <v>3028826</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>207</v>
+        <v>220</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>208</v>
+        <v>221</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>95</v>
+        <v>222</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3947,7 +3935,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54DFF1F1-7828-4DCE-A9F2-DF2066D3F698}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{446FF9D4-E397-4543-B422-532D69D6B772}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3964,7 +3952,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>209</v>
+        <v>223</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4071,13 +4059,13 @@
         <v>3374</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>210</v>
+        <v>112</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>211</v>
+        <v>224</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>212</v>
+        <v>225</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -4089,10 +4077,10 @@
         <v>15</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>213</v>
+        <v>226</v>
       </c>
       <c r="M4" s="7">
         <v>3</v>
@@ -4101,13 +4089,13 @@
         <v>3374</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>214</v>
+        <v>144</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>215</v>
+        <v>227</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>216</v>
+        <v>228</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4122,13 +4110,13 @@
         <v>247176</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>217</v>
+        <v>119</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>218</v>
+        <v>229</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>219</v>
+        <v>230</v>
       </c>
       <c r="H5" s="7">
         <v>171</v>
@@ -4140,7 +4128,7 @@
         <v>26</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>220</v>
+        <v>231</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>30</v>
@@ -4152,13 +4140,13 @@
         <v>413893</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>221</v>
+        <v>151</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>222</v>
+        <v>232</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>223</v>
+        <v>233</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4226,13 +4214,13 @@
         <v>7097</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>202</v>
+        <v>234</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>140</v>
+        <v>235</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>224</v>
+        <v>236</v>
       </c>
       <c r="H7" s="7">
         <v>3</v>
@@ -4241,13 +4229,13 @@
         <v>3029</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>177</v>
+        <v>186</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>225</v>
+        <v>15</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>226</v>
+        <v>237</v>
       </c>
       <c r="M7" s="7">
         <v>10</v>
@@ -4256,13 +4244,13 @@
         <v>10127</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>227</v>
+        <v>238</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>228</v>
+        <v>239</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4277,13 +4265,13 @@
         <v>356183</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>208</v>
+        <v>240</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>229</v>
+        <v>241</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>148</v>
+        <v>242</v>
       </c>
       <c r="H8" s="7">
         <v>225</v>
@@ -4292,13 +4280,13 @@
         <v>220001</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>184</v>
+        <v>194</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>230</v>
+        <v>243</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>231</v>
+        <v>26</v>
       </c>
       <c r="M8" s="7">
         <v>569</v>
@@ -4307,13 +4295,13 @@
         <v>576183</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>232</v>
+        <v>244</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>233</v>
+        <v>245</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4369,7 +4357,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -4381,13 +4369,13 @@
         <v>4421</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>38</v>
+        <v>214</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>234</v>
+        <v>74</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>235</v>
+        <v>11</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -4399,10 +4387,10 @@
         <v>15</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>236</v>
+        <v>246</v>
       </c>
       <c r="M10" s="7">
         <v>4</v>
@@ -4411,13 +4399,13 @@
         <v>4421</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>237</v>
+        <v>247</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>238</v>
+        <v>248</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>239</v>
+        <v>249</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4432,13 +4420,13 @@
         <v>422980</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>47</v>
+        <v>222</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>240</v>
+        <v>21</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>241</v>
+        <v>83</v>
       </c>
       <c r="H11" s="7">
         <v>246</v>
@@ -4450,7 +4438,7 @@
         <v>26</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>242</v>
+        <v>250</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>30</v>
@@ -4462,13 +4450,13 @@
         <v>670119</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>243</v>
+        <v>251</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>244</v>
+        <v>252</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>245</v>
+        <v>253</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4524,7 +4512,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -4536,13 +4524,13 @@
         <v>4261</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>163</v>
+        <v>254</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>246</v>
+        <v>69</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>247</v>
+        <v>255</v>
       </c>
       <c r="H13" s="7">
         <v>3</v>
@@ -4551,13 +4539,13 @@
         <v>3181</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>15</v>
+        <v>256</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>248</v>
+        <v>257</v>
       </c>
       <c r="M13" s="7">
         <v>7</v>
@@ -4566,13 +4554,13 @@
         <v>7441</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>249</v>
+        <v>258</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>178</v>
+        <v>259</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>250</v>
+        <v>127</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4587,13 +4575,13 @@
         <v>385315</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>169</v>
+        <v>260</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>251</v>
+        <v>261</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>252</v>
+        <v>78</v>
       </c>
       <c r="H14" s="7">
         <v>237</v>
@@ -4602,13 +4590,13 @@
         <v>259450</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>253</v>
+        <v>262</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>26</v>
+        <v>263</v>
       </c>
       <c r="M14" s="7">
         <v>584</v>
@@ -4617,13 +4605,13 @@
         <v>644766</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>254</v>
+        <v>264</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>255</v>
+        <v>135</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>186</v>
+        <v>265</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4679,7 +4667,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4691,13 +4679,13 @@
         <v>7966</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>256</v>
+        <v>266</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>257</v>
+        <v>267</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>258</v>
+        <v>268</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -4709,10 +4697,10 @@
         <v>15</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>227</v>
+        <v>238</v>
       </c>
       <c r="M16" s="7">
         <v>7</v>
@@ -4721,13 +4709,13 @@
         <v>7966</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>202</v>
+        <v>234</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>259</v>
+        <v>235</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>260</v>
+        <v>269</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4742,13 +4730,13 @@
         <v>274685</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>261</v>
+        <v>270</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>262</v>
+        <v>271</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>263</v>
+        <v>272</v>
       </c>
       <c r="H17" s="7">
         <v>110</v>
@@ -4760,7 +4748,7 @@
         <v>26</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>232</v>
+        <v>244</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>30</v>
@@ -4772,13 +4760,13 @@
         <v>401205</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>208</v>
+        <v>240</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>264</v>
+        <v>273</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>265</v>
+        <v>242</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4834,7 +4822,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -4846,13 +4834,13 @@
         <v>4845</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>113</v>
+        <v>184</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>266</v>
+        <v>51</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>267</v>
+        <v>16</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -4864,10 +4852,10 @@
         <v>15</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="M19" s="7">
         <v>5</v>
@@ -4876,13 +4864,13 @@
         <v>4845</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>110</v>
+        <v>275</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>269</v>
+        <v>276</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>270</v>
+        <v>188</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4897,13 +4885,13 @@
         <v>262933</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>121</v>
+        <v>192</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>271</v>
+        <v>25</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>272</v>
+        <v>59</v>
       </c>
       <c r="H20" s="7">
         <v>86</v>
@@ -4915,7 +4903,7 @@
         <v>26</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>30</v>
@@ -4927,13 +4915,13 @@
         <v>367110</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>119</v>
+        <v>278</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>274</v>
+        <v>195</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5001,13 +4989,13 @@
         <v>31963</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>115</v>
+        <v>33</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="H22" s="7">
         <v>6</v>
@@ -5016,13 +5004,13 @@
         <v>6210</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>278</v>
+        <v>147</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>280</v>
+        <v>254</v>
       </c>
       <c r="M22" s="7">
         <v>36</v>
@@ -5031,13 +5019,13 @@
         <v>38173</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>34</v>
+        <v>285</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5052,13 +5040,13 @@
         <v>1949273</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>124</v>
+        <v>43</v>
       </c>
       <c r="H23" s="7">
         <v>1075</v>
@@ -5067,13 +5055,13 @@
         <v>1124004</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>285</v>
+        <v>154</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>286</v>
+        <v>260</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="M23" s="7">
         <v>2918</v>
@@ -5082,13 +5070,13 @@
         <v>3073277</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>42</v>
+        <v>290</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5166,7 +5154,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28234E9A-BDD5-4B6F-BED5-91CACF1FF6C1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BA038D7-9F14-47ED-8ACB-6E46CB6F8CB7}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5183,7 +5171,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5293,10 +5281,10 @@
         <v>15</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="H4" s="7">
         <v>3</v>
@@ -5305,13 +5293,13 @@
         <v>4569</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>238</v>
+        <v>248</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="M4" s="7">
         <v>3</v>
@@ -5320,13 +5308,13 @@
         <v>4569</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>239</v>
+        <v>285</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5344,7 +5332,7 @@
         <v>26</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>30</v>
@@ -5356,13 +5344,13 @@
         <v>108261</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>245</v>
+        <v>253</v>
       </c>
       <c r="M5" s="7">
         <v>134</v>
@@ -5371,13 +5359,13 @@
         <v>269476</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>244</v>
+        <v>290</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5448,10 +5436,10 @@
         <v>15</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="H7" s="7">
         <v>1</v>
@@ -5460,7 +5448,7 @@
         <v>938</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>15</v>
@@ -5475,13 +5463,13 @@
         <v>938</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>70</v>
+        <v>303</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>15</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5499,7 +5487,7 @@
         <v>26</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>30</v>
@@ -5511,7 +5499,7 @@
         <v>150934</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>21</v>
@@ -5526,10 +5514,10 @@
         <v>378325</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>79</v>
+        <v>304</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>26</v>
@@ -5588,7 +5576,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -5600,13 +5588,13 @@
         <v>3556</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>211</v>
+        <v>224</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>39</v>
+        <v>257</v>
       </c>
       <c r="H10" s="7">
         <v>2</v>
@@ -5615,13 +5603,13 @@
         <v>1353</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>301</v>
+        <v>284</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>302</v>
+        <v>104</v>
       </c>
       <c r="M10" s="7">
         <v>5</v>
@@ -5630,13 +5618,13 @@
         <v>4909</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>163</v>
+        <v>254</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5651,13 +5639,13 @@
         <v>285067</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>46</v>
+        <v>262</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>219</v>
+        <v>230</v>
       </c>
       <c r="H11" s="7">
         <v>227</v>
@@ -5666,10 +5654,10 @@
         <v>158844</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>305</v>
+        <v>291</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>306</v>
+        <v>109</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>26</v>
@@ -5681,7 +5669,7 @@
         <v>443910</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>169</v>
+        <v>260</v>
       </c>
       <c r="P11" s="7" t="s">
         <v>307</v>
@@ -5743,7 +5731,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -5755,13 +5743,13 @@
         <v>3344</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>142</v>
+        <v>128</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>279</v>
+        <v>309</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -5773,10 +5761,10 @@
         <v>15</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="M13" s="7">
         <v>4</v>
@@ -5785,10 +5773,10 @@
         <v>3344</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>312</v>
+        <v>282</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>313</v>
@@ -5806,13 +5794,13 @@
         <v>350345</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>314</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>287</v>
+        <v>315</v>
       </c>
       <c r="H14" s="7">
         <v>324</v>
@@ -5824,7 +5812,7 @@
         <v>26</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>30</v>
@@ -5836,13 +5824,13 @@
         <v>555435</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>318</v>
+        <v>288</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5898,7 +5886,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5928,7 +5916,7 @@
         <v>322</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>323</v>
@@ -5943,7 +5931,7 @@
         <v>324</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>110</v>
+        <v>275</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>325</v>
@@ -5982,7 +5970,7 @@
         <v>330</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="M17" s="7">
         <v>533</v>
@@ -5997,7 +5985,7 @@
         <v>332</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>119</v>
+        <v>278</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6053,7 +6041,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -6068,7 +6056,7 @@
         <v>333</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>142</v>
+        <v>128</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>334</v>
@@ -6080,13 +6068,13 @@
         <v>903</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="M19" s="7">
         <v>11</v>
@@ -6101,7 +6089,7 @@
         <v>335</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>336</v>
+        <v>55</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6116,13 +6104,13 @@
         <v>302514</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>337</v>
       </c>
-      <c r="F20" s="7" t="s">
-        <v>338</v>
-      </c>
       <c r="G20" s="7" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="H20" s="7">
         <v>202</v>
@@ -6131,10 +6119,10 @@
         <v>220990</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>26</v>
@@ -6149,10 +6137,10 @@
         <v>328</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>339</v>
+        <v>63</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6220,13 +6208,13 @@
         <v>19975</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>214</v>
+        <v>144</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="H22" s="7">
         <v>12</v>
@@ -6235,13 +6223,13 @@
         <v>10238</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>38</v>
+        <v>214</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="M22" s="7">
         <v>36</v>
@@ -6250,13 +6238,13 @@
         <v>30214</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>344</v>
+        <v>116</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6271,13 +6259,13 @@
         <v>1597732</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>221</v>
+        <v>151</v>
       </c>
       <c r="H23" s="7">
         <v>1193</v>
@@ -6286,13 +6274,13 @@
         <v>986608</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>47</v>
+        <v>222</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="M23" s="7">
         <v>2756</v>
@@ -6301,13 +6289,13 @@
         <v>2584339</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>350</v>
+        <v>124</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P32C-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P32C-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4DAD9929-D5DC-4D5A-8864-0D47674DF62D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B442F533-4E28-40F6-A0D0-4FFDB379A1B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{D1149AF2-1AAB-4D01-8FCC-39CE69A068D7}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{6B94402D-2938-4F77-AB79-B364F43AA4D4}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="349">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="363">
   <si>
     <t>Población según si han bebido alguna vez para calmar los nervios o para evitar la resaca en 2007 (Tasa respuesta: 41,76%)</t>
   </si>
@@ -71,16 +71,16 @@
     <t>16/24</t>
   </si>
   <si>
-    <t>Si</t>
+    <t>Sí</t>
   </si>
   <si>
     <t>2,84%</t>
   </si>
   <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
   </si>
   <si>
     <t>1,31%</t>
@@ -89,16 +89,16 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>4,41%</t>
+    <t>4,38%</t>
   </si>
   <si>
     <t>2,23%</t>
   </si>
   <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,16 +107,16 @@
     <t>97,16%</t>
   </si>
   <si>
-    <t>94,64%</t>
-  </si>
-  <si>
-    <t>98,75%</t>
+    <t>94,54%</t>
+  </si>
+  <si>
+    <t>98,67%</t>
   </si>
   <si>
     <t>98,69%</t>
   </si>
   <si>
-    <t>95,59%</t>
+    <t>95,62%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -125,10 +125,10 @@
     <t>97,77%</t>
   </si>
   <si>
-    <t>96,12%</t>
-  </si>
-  <si>
-    <t>98,93%</t>
+    <t>96,05%</t>
+  </si>
+  <si>
+    <t>98,9%</t>
   </si>
   <si>
     <t>100%</t>
@@ -140,55 +140,49 @@
     <t>2,17%</t>
   </si>
   <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
+    <t>4,11%</t>
   </si>
   <si>
     <t>1,7%</t>
   </si>
   <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>4,76%</t>
   </si>
   <si>
     <t>2,03%</t>
   </si>
   <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
   </si>
   <si>
     <t>97,83%</t>
   </si>
   <si>
-    <t>95,79%</t>
-  </si>
-  <si>
-    <t>98,89%</t>
+    <t>95,89%</t>
   </si>
   <si>
     <t>98,3%</t>
   </si>
   <si>
-    <t>95,03%</t>
-  </si>
-  <si>
-    <t>99,53%</t>
+    <t>95,24%</t>
+  </si>
+  <si>
+    <t>99,54%</t>
   </si>
   <si>
     <t>97,97%</t>
   </si>
   <si>
-    <t>96,67%</t>
-  </si>
-  <si>
-    <t>98,9%</t>
+    <t>96,72%</t>
+  </si>
+  <si>
+    <t>98,97%</t>
   </si>
   <si>
     <t>35/44</t>
@@ -200,892 +194,940 @@
     <t>0,22%</t>
   </si>
   <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>99,28%</t>
+  </si>
+  <si>
+    <t>97,92%</t>
+  </si>
+  <si>
+    <t>99,78%</t>
+  </si>
+  <si>
+    <t>97,72%</t>
+  </si>
+  <si>
+    <t>99,38%</t>
+  </si>
+  <si>
+    <t>98,42%</t>
+  </si>
+  <si>
+    <t>99,84%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>98,79%</t>
+  </si>
+  <si>
+    <t>96,23%</t>
+  </si>
+  <si>
+    <t>99,71%</t>
+  </si>
+  <si>
+    <t>99,3%</t>
+  </si>
+  <si>
+    <t>97,13%</t>
+  </si>
+  <si>
+    <t>98,95%</t>
+  </si>
+  <si>
+    <t>97,27%</t>
+  </si>
+  <si>
+    <t>99,75%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>7,19%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>96,5%</t>
+  </si>
+  <si>
+    <t>92,81%</t>
+  </si>
+  <si>
+    <t>98,49%</t>
+  </si>
+  <si>
+    <t>97,45%</t>
+  </si>
+  <si>
+    <t>97,54%</t>
+  </si>
+  <si>
+    <t>95,2%</t>
+  </si>
+  <si>
+    <t>98,96%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>98,32%</t>
+  </si>
+  <si>
+    <t>95,84%</t>
+  </si>
+  <si>
+    <t>99,59%</t>
+  </si>
+  <si>
+    <t>98,63%</t>
+  </si>
+  <si>
+    <t>96,51%</t>
+  </si>
+  <si>
+    <t>99,67%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
     <t>2,09%</t>
   </si>
   <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>99,28%</t>
+    <t>98,12%</t>
+  </si>
+  <si>
+    <t>97,41%</t>
+  </si>
+  <si>
+    <t>98,7%</t>
+  </si>
+  <si>
+    <t>99,09%</t>
+  </si>
+  <si>
+    <t>98,19%</t>
+  </si>
+  <si>
+    <t>98,43%</t>
   </si>
   <si>
     <t>97,91%</t>
   </si>
   <si>
-    <t>99,78%</t>
-  </si>
-  <si>
-    <t>99,54%</t>
-  </si>
-  <si>
-    <t>97,73%</t>
-  </si>
-  <si>
-    <t>99,38%</t>
-  </si>
-  <si>
-    <t>98,49%</t>
-  </si>
-  <si>
-    <t>99,84%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
+    <t>98,87%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si han bebido alguna vez para calmar los nervios o para evitar la resaca en 2012 (Tasa respuesta: 44,06%)</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>97,67%</t>
+  </si>
+  <si>
+    <t>95,25%</t>
+  </si>
+  <si>
+    <t>98,94%</t>
+  </si>
+  <si>
+    <t>99,44%</t>
+  </si>
+  <si>
+    <t>97,37%</t>
+  </si>
+  <si>
+    <t>98,36%</t>
+  </si>
+  <si>
+    <t>97,03%</t>
+  </si>
+  <si>
+    <t>99,26%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>98,23%</t>
+  </si>
+  <si>
+    <t>96,64%</t>
+  </si>
+  <si>
+    <t>99,21%</t>
+  </si>
+  <si>
+    <t>99,05%</t>
+  </si>
+  <si>
+    <t>98,78%</t>
+  </si>
+  <si>
+    <t>97,42%</t>
+  </si>
+  <si>
+    <t>99,45%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>97,46%</t>
+  </si>
+  <si>
+    <t>95,35%</t>
+  </si>
+  <si>
+    <t>98,61%</t>
+  </si>
+  <si>
+    <t>99,14%</t>
+  </si>
+  <si>
+    <t>98,38%</t>
+  </si>
+  <si>
+    <t>97,12%</t>
+  </si>
+  <si>
+    <t>99,17%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>97,55%</t>
+  </si>
+  <si>
+    <t>94,99%</t>
+  </si>
+  <si>
+    <t>98,98%</t>
+  </si>
+  <si>
+    <t>98,41%</t>
+  </si>
+  <si>
+    <t>96,98%</t>
+  </si>
+  <si>
+    <t>99,31%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>6,35%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>98,85%</t>
+  </si>
+  <si>
+    <t>96,84%</t>
+  </si>
+  <si>
+    <t>99,65%</t>
+  </si>
+  <si>
+    <t>93,65%</t>
+  </si>
+  <si>
+    <t>98,64%</t>
+  </si>
+  <si>
+    <t>99,48%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>98,71%</t>
+  </si>
+  <si>
+    <t>96,44%</t>
+  </si>
+  <si>
+    <t>97,38%</t>
+  </si>
+  <si>
+    <t>99,03%</t>
+  </si>
+  <si>
+    <t>97,4%</t>
+  </si>
+  <si>
+    <t>99,69%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>97,99%</t>
+  </si>
+  <si>
+    <t>97,23%</t>
+  </si>
+  <si>
+    <t>98,5%</t>
+  </si>
+  <si>
+    <t>99,22%</t>
+  </si>
+  <si>
+    <t>99,9%</t>
+  </si>
+  <si>
+    <t>98,57%</t>
+  </si>
+  <si>
+    <t>98,09%</t>
+  </si>
+  <si>
+    <t>Población según si han bebido alguna vez para calmar los nervios o para evitar la resaca en 2016 (Tasa respuesta: 44,97%)</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>98,65%</t>
+  </si>
+  <si>
+    <t>96,17%</t>
+  </si>
+  <si>
+    <t>99,62%</t>
+  </si>
+  <si>
+    <t>98,88%</t>
+  </si>
+  <si>
+    <t>99,19%</t>
+  </si>
+  <si>
+    <t>99,77%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>98,05%</t>
+  </si>
+  <si>
+    <t>96,29%</t>
+  </si>
+  <si>
+    <t>96,4%</t>
+  </si>
+  <si>
+    <t>98,27%</t>
+  </si>
+  <si>
+    <t>96,91%</t>
+  </si>
+  <si>
+    <t>99,13%</t>
   </si>
   <si>
     <t>0,24%</t>
   </si>
   <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>98,79%</t>
-  </si>
-  <si>
-    <t>96,27%</t>
-  </si>
-  <si>
-    <t>99,71%</t>
-  </si>
-  <si>
-    <t>99,3%</t>
-  </si>
-  <si>
-    <t>96,49%</t>
-  </si>
-  <si>
-    <t>98,95%</t>
-  </si>
-  <si>
-    <t>97,39%</t>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>97,5%</t>
   </si>
   <si>
     <t>99,76%</t>
   </si>
   <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>96,5%</t>
-  </si>
-  <si>
-    <t>93,0%</t>
-  </si>
-  <si>
-    <t>98,52%</t>
-  </si>
-  <si>
-    <t>97,45%</t>
-  </si>
-  <si>
-    <t>97,54%</t>
-  </si>
-  <si>
-    <t>95,2%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
+    <t>99,34%</t>
+  </si>
+  <si>
+    <t>98,34%</t>
+  </si>
+  <si>
+    <t>99,85%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>98,91%</t>
+  </si>
+  <si>
+    <t>97,51%</t>
+  </si>
+  <si>
+    <t>99,73%</t>
+  </si>
+  <si>
+    <t>98,86%</t>
+  </si>
+  <si>
+    <t>97,7%</t>
+  </si>
+  <si>
+    <t>99,51%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>97,18%</t>
+  </si>
+  <si>
+    <t>94,33%</t>
+  </si>
+  <si>
+    <t>98,81%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>96,01%</t>
+  </si>
+  <si>
+    <t>99,33%</t>
+  </si>
+  <si>
+    <t>97,8%</t>
+  </si>
+  <si>
+    <t>97,22%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>98,39%</t>
+  </si>
+  <si>
+    <t>97,76%</t>
+  </si>
+  <si>
+    <t>99,81%</t>
+  </si>
+  <si>
+    <t>98,77%</t>
+  </si>
+  <si>
+    <t>98,33%</t>
+  </si>
+  <si>
+    <t>Población según si han bebido alguna vez para calmar los nervios o para evitar la resaca en 2023 (Tasa respuesta: 31,93%)</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>13,9%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>97,3%</t>
+  </si>
+  <si>
+    <t>95,95%</t>
+  </si>
+  <si>
+    <t>86,1%</t>
+  </si>
+  <si>
+    <t>94,37%</t>
+  </si>
+  <si>
+    <t>99,94%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>96,71%</t>
   </si>
   <si>
     <t>0,4%</t>
   </si>
   <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>98,32%</t>
-  </si>
-  <si>
-    <t>99,59%</t>
-  </si>
-  <si>
-    <t>95,84%</t>
-  </si>
-  <si>
-    <t>98,63%</t>
-  </si>
-  <si>
-    <t>96,6%</t>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>96,46%</t>
   </si>
   <si>
     <t>99,6%</t>
   </si>
   <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
+    <t>99,16%</t>
+  </si>
+  <si>
+    <t>96,87%</t>
+  </si>
+  <si>
+    <t>97,56%</t>
+  </si>
+  <si>
+    <t>99,63%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>97,43%</t>
+  </si>
+  <si>
+    <t>99,41%</t>
+  </si>
+  <si>
+    <t>99,4%</t>
+  </si>
+  <si>
+    <t>98,48%</t>
+  </si>
+  <si>
+    <t>99,83%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>94,77%</t>
+  </si>
+  <si>
+    <t>98,76%</t>
+  </si>
+  <si>
+    <t>98,29%</t>
+  </si>
+  <si>
+    <t>95,65%</t>
+  </si>
+  <si>
+    <t>99,52%</t>
+  </si>
+  <si>
+    <t>97,71%</t>
+  </si>
+  <si>
+    <t>95,9%</t>
+  </si>
+  <si>
+    <t>98,8%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>98,1%</t>
+  </si>
+  <si>
+    <t>98,99%</t>
+  </si>
+  <si>
+    <t>98,73%</t>
+  </si>
+  <si>
+    <t>97,64%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
   </si>
   <si>
     <t>1,16%</t>
   </si>
   <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>98,12%</t>
-  </si>
-  <si>
-    <t>98,65%</t>
-  </si>
-  <si>
-    <t>99,09%</t>
-  </si>
-  <si>
-    <t>98,22%</t>
-  </si>
-  <si>
-    <t>98,43%</t>
-  </si>
-  <si>
-    <t>97,9%</t>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>98,18%</t>
+  </si>
+  <si>
+    <t>99,18%</t>
+  </si>
+  <si>
+    <t>97,78%</t>
   </si>
   <si>
     <t>98,84%</t>
   </si>
   <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si han bebido alguna vez para calmar los nervios o para evitar la resaca en 2012 (Tasa respuesta: 44,06%)</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>97,67%</t>
-  </si>
-  <si>
-    <t>95,43%</t>
-  </si>
-  <si>
-    <t>99,05%</t>
-  </si>
-  <si>
-    <t>99,44%</t>
-  </si>
-  <si>
-    <t>96,82%</t>
-  </si>
-  <si>
-    <t>98,36%</t>
-  </si>
-  <si>
-    <t>96,78%</t>
+    <t>98,35%</t>
   </si>
   <si>
     <t>99,2%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>98,23%</t>
-  </si>
-  <si>
-    <t>96,42%</t>
-  </si>
-  <si>
-    <t>99,19%</t>
-  </si>
-  <si>
-    <t>98,78%</t>
-  </si>
-  <si>
-    <t>97,52%</t>
-  </si>
-  <si>
-    <t>99,45%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>97,46%</t>
-  </si>
-  <si>
-    <t>95,49%</t>
-  </si>
-  <si>
-    <t>99,14%</t>
-  </si>
-  <si>
-    <t>98,38%</t>
-  </si>
-  <si>
-    <t>97,03%</t>
-  </si>
-  <si>
-    <t>99,12%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>97,55%</t>
-  </si>
-  <si>
-    <t>95,0%</t>
-  </si>
-  <si>
-    <t>98,87%</t>
-  </si>
-  <si>
-    <t>98,98%</t>
-  </si>
-  <si>
-    <t>98,41%</t>
-  </si>
-  <si>
-    <t>96,77%</t>
-  </si>
-  <si>
-    <t>99,27%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>6,45%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>98,85%</t>
-  </si>
-  <si>
-    <t>96,74%</t>
-  </si>
-  <si>
-    <t>99,65%</t>
-  </si>
-  <si>
-    <t>98,19%</t>
-  </si>
-  <si>
-    <t>93,55%</t>
-  </si>
-  <si>
-    <t>98,64%</t>
-  </si>
-  <si>
-    <t>96,94%</t>
-  </si>
-  <si>
-    <t>99,47%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>98,71%</t>
-  </si>
-  <si>
-    <t>96,51%</t>
-  </si>
-  <si>
-    <t>97,38%</t>
-  </si>
-  <si>
-    <t>99,03%</t>
-  </si>
-  <si>
-    <t>97,35%</t>
-  </si>
-  <si>
-    <t>99,7%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>97,99%</t>
-  </si>
-  <si>
-    <t>97,26%</t>
-  </si>
-  <si>
-    <t>99,18%</t>
-  </si>
-  <si>
-    <t>99,9%</t>
-  </si>
-  <si>
-    <t>98,57%</t>
-  </si>
-  <si>
-    <t>98,08%</t>
-  </si>
-  <si>
-    <t>98,97%</t>
-  </si>
-  <si>
-    <t>Población según si han bebido alguna vez para calmar los nervios o para evitar la resaca en 2016 (Tasa respuesta: 44,97%)</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>96,01%</t>
-  </si>
-  <si>
-    <t>99,61%</t>
-  </si>
-  <si>
-    <t>98,88%</t>
-  </si>
-  <si>
-    <t>97,57%</t>
-  </si>
-  <si>
-    <t>99,77%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>98,05%</t>
-  </si>
-  <si>
-    <t>96,13%</t>
-  </si>
-  <si>
-    <t>99,17%</t>
-  </si>
-  <si>
-    <t>96,21%</t>
-  </si>
-  <si>
-    <t>98,27%</t>
-  </si>
-  <si>
-    <t>96,99%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>99,22%</t>
-  </si>
-  <si>
-    <t>99,34%</t>
-  </si>
-  <si>
-    <t>98,28%</t>
-  </si>
-  <si>
-    <t>99,85%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>98,91%</t>
-  </si>
-  <si>
-    <t>97,01%</t>
-  </si>
-  <si>
-    <t>96,72%</t>
-  </si>
-  <si>
-    <t>99,63%</t>
-  </si>
-  <si>
-    <t>98,86%</t>
-  </si>
-  <si>
-    <t>99,51%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>97,18%</t>
-  </si>
-  <si>
-    <t>94,7%</t>
-  </si>
-  <si>
-    <t>98,8%</t>
-  </si>
-  <si>
-    <t>96,35%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>97,8%</t>
-  </si>
-  <si>
-    <t>98,7%</t>
-  </si>
-  <si>
-    <t>99,5%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>98,39%</t>
-  </si>
-  <si>
-    <t>97,75%</t>
-  </si>
-  <si>
-    <t>99,81%</t>
-  </si>
-  <si>
-    <t>98,77%</t>
-  </si>
-  <si>
-    <t>98,33%</t>
-  </si>
-  <si>
-    <t>99,16%</t>
-  </si>
-  <si>
-    <t>Población según si han bebido alguna vez para calmar los nervios o para evitar la resaca en 2023 (Tasa respuesta: 31,93%)</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>13,65%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>5,66%</t>
-  </si>
-  <si>
-    <t>97,3%</t>
-  </si>
-  <si>
-    <t>95,95%</t>
-  </si>
-  <si>
-    <t>86,35%</t>
-  </si>
-  <si>
-    <t>94,34%</t>
-  </si>
-  <si>
-    <t>99,94%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>99,75%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>97,44%</t>
-  </si>
-  <si>
-    <t>99,62%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>97,28%</t>
-  </si>
-  <si>
-    <t>99,74%</t>
-  </si>
-  <si>
-    <t>99,41%</t>
-  </si>
-  <si>
-    <t>99,4%</t>
-  </si>
-  <si>
-    <t>98,45%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>97,4%</t>
-  </si>
-  <si>
-    <t>94,96%</t>
-  </si>
-  <si>
-    <t>98,73%</t>
-  </si>
-  <si>
-    <t>98,29%</t>
-  </si>
-  <si>
-    <t>95,94%</t>
-  </si>
-  <si>
-    <t>97,71%</t>
-  </si>
-  <si>
-    <t>95,96%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>98,1%</t>
-  </si>
-  <si>
-    <t>96,33%</t>
-  </si>
-  <si>
-    <t>99,48%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>98,17%</t>
-  </si>
-  <si>
-    <t>97,88%</t>
-  </si>
-  <si>
-    <t>99,55%</t>
-  </si>
-  <si>
-    <t>98,4%</t>
-  </si>
-  <si>
-    <t>99,23%</t>
   </si>
 </sst>
 </file>
@@ -1497,7 +1539,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EBE539F-B7F8-4EB5-86E1-CD1D8F6FD3D3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEA93896-80E1-4979-8EFA-44A29C7E9AD1}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1779,10 +1821,10 @@
         <v>32</v>
       </c>
       <c r="F7" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>33</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>34</v>
       </c>
       <c r="H7" s="7">
         <v>3</v>
@@ -1791,13 +1833,13 @@
         <v>3703</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>36</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>37</v>
       </c>
       <c r="M7" s="7">
         <v>13</v>
@@ -1806,13 +1848,13 @@
         <v>14588</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>39</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1827,13 +1869,13 @@
         <v>490011</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="F8" s="7" t="s">
-        <v>42</v>
-      </c>
       <c r="G8" s="7" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="H8" s="7">
         <v>201</v>
@@ -1842,13 +1884,13 @@
         <v>214573</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>44</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>46</v>
       </c>
       <c r="M8" s="7">
         <v>675</v>
@@ -1857,13 +1899,13 @@
         <v>704583</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>47</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1919,7 +1961,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -1931,13 +1973,13 @@
         <v>2888</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>51</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>53</v>
       </c>
       <c r="H10" s="7">
         <v>1</v>
@@ -1946,13 +1988,13 @@
         <v>1018</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="M10" s="7">
         <v>4</v>
@@ -1961,13 +2003,13 @@
         <v>3905</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1982,13 +2024,13 @@
         <v>398902</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="H11" s="7">
         <v>215</v>
@@ -1997,10 +2039,10 @@
         <v>222317</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>26</v>
@@ -2012,13 +2054,13 @@
         <v>621220</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2074,7 +2116,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -2086,13 +2128,13 @@
         <v>3794</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="H13" s="7">
         <v>1</v>
@@ -2101,13 +2143,13 @@
         <v>1013</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="M13" s="7">
         <v>4</v>
@@ -2116,13 +2158,13 @@
         <v>4807</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2137,13 +2179,13 @@
         <v>309700</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="H14" s="7">
         <v>138</v>
@@ -2152,10 +2194,10 @@
         <v>144190</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>26</v>
@@ -2167,13 +2209,13 @@
         <v>453890</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2229,7 +2271,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2241,13 +2283,13 @@
         <v>6295</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -2259,10 +2301,10 @@
         <v>15</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="M16" s="7">
         <v>7</v>
@@ -2271,13 +2313,13 @@
         <v>6295</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2292,13 +2334,13 @@
         <v>173797</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="H17" s="7">
         <v>74</v>
@@ -2310,7 +2352,7 @@
         <v>26</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>30</v>
@@ -2322,13 +2364,13 @@
         <v>249232</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>81</v>
+        <v>95</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2384,7 +2426,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2396,13 +2438,13 @@
         <v>3416</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>16</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -2414,10 +2456,10 @@
         <v>15</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="M19" s="7">
         <v>4</v>
@@ -2426,13 +2468,13 @@
         <v>3416</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2447,13 +2489,13 @@
         <v>199518</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>106</v>
       </c>
       <c r="H20" s="7">
         <v>45</v>
@@ -2465,7 +2507,7 @@
         <v>26</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>30</v>
@@ -2477,13 +2519,13 @@
         <v>245436</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2551,13 +2593,13 @@
         <v>35262</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>89</v>
       </c>
       <c r="H22" s="7">
         <v>7</v>
@@ -2566,13 +2608,13 @@
         <v>8180</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>114</v>
       </c>
       <c r="M22" s="7">
         <v>42</v>
@@ -2581,13 +2623,13 @@
         <v>43443</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2602,10 +2644,10 @@
         <v>1844656</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="F23" s="7" t="s">
         <v>118</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>95</v>
       </c>
       <c r="G23" s="7" t="s">
         <v>119</v>
@@ -2623,7 +2665,7 @@
         <v>121</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="M23" s="7">
         <v>2677</v>
@@ -2716,7 +2758,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE65F3A9-DCFC-4156-9DD6-68EE6A4C5870}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{854FD249-9026-48C0-AD03-09FD23F507CA}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3013,10 +3055,10 @@
         <v>15</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>128</v>
+        <v>146</v>
       </c>
       <c r="M7" s="7">
         <v>8</v>
@@ -3025,13 +3067,13 @@
         <v>8237</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3046,13 +3088,13 @@
         <v>456691</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="H8" s="7">
         <v>201</v>
@@ -3064,7 +3106,7 @@
         <v>26</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>137</v>
+        <v>153</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>30</v>
@@ -3076,13 +3118,13 @@
         <v>669128</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3138,7 +3180,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -3150,13 +3192,13 @@
         <v>10830</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>14</v>
+        <v>158</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -3168,10 +3210,10 @@
         <v>15</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="M10" s="7">
         <v>11</v>
@@ -3180,13 +3222,13 @@
         <v>10830</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3201,13 +3243,13 @@
         <v>416371</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>24</v>
+        <v>166</v>
       </c>
       <c r="H11" s="7">
         <v>222</v>
@@ -3219,7 +3261,7 @@
         <v>26</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>30</v>
@@ -3231,13 +3273,13 @@
         <v>658290</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3293,7 +3335,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -3305,13 +3347,13 @@
         <v>9636</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>168</v>
+        <v>14</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -3323,10 +3365,10 @@
         <v>15</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="M13" s="7">
         <v>8</v>
@@ -3335,13 +3377,13 @@
         <v>9636</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3356,13 +3398,13 @@
         <v>384472</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>176</v>
+        <v>24</v>
       </c>
       <c r="H14" s="7">
         <v>187</v>
@@ -3374,7 +3416,7 @@
         <v>26</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>30</v>
@@ -3386,13 +3428,13 @@
         <v>597863</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3448,7 +3490,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3460,13 +3502,13 @@
         <v>2621</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="H16" s="7">
         <v>2</v>
@@ -3475,13 +3517,13 @@
         <v>2026</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>184</v>
+        <v>113</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="M16" s="7">
         <v>5</v>
@@ -3490,13 +3532,13 @@
         <v>4647</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3526,10 +3568,10 @@
         <v>110168</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>192</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>193</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>26</v>
@@ -3541,13 +3583,13 @@
         <v>336024</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>194</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3603,7 +3645,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -3615,13 +3657,13 @@
         <v>3093</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -3633,10 +3675,10 @@
         <v>15</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="M19" s="7">
         <v>3</v>
@@ -3645,13 +3687,13 @@
         <v>3093</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>200</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3666,13 +3708,13 @@
         <v>235889</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H20" s="7">
         <v>72</v>
@@ -3684,7 +3726,7 @@
         <v>26</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>30</v>
@@ -3696,13 +3738,13 @@
         <v>315935</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>206</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3770,13 +3812,13 @@
         <v>40920</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>209</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>210</v>
       </c>
       <c r="H22" s="7">
         <v>3</v>
@@ -3785,13 +3827,13 @@
         <v>3038</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="K22" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>211</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>212</v>
       </c>
       <c r="M22" s="7">
         <v>43</v>
@@ -3800,13 +3842,13 @@
         <v>43958</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>213</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3821,13 +3863,13 @@
         <v>1991315</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>216</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="H23" s="7">
         <v>953</v>
@@ -3836,13 +3878,13 @@
         <v>1037511</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="K23" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>218</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>219</v>
       </c>
       <c r="M23" s="7">
         <v>2824</v>
@@ -3851,13 +3893,13 @@
         <v>3028826</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="P23" s="7" t="s">
         <v>220</v>
       </c>
-      <c r="P23" s="7" t="s">
-        <v>221</v>
-      </c>
       <c r="Q23" s="7" t="s">
-        <v>222</v>
+        <v>95</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3935,7 +3977,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{446FF9D4-E397-4543-B422-532D69D6B772}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEBE4FF3-C5AD-42B7-B02F-C904269301AB}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3952,7 +3994,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4059,13 +4101,13 @@
         <v>3374</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>112</v>
+        <v>222</v>
       </c>
       <c r="F4" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>224</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>225</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -4077,10 +4119,10 @@
         <v>15</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="M4" s="7">
         <v>3</v>
@@ -4089,13 +4131,13 @@
         <v>3374</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>144</v>
+        <v>226</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>227</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>228</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4110,7 +4152,7 @@
         <v>247176</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>119</v>
+        <v>228</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>229</v>
@@ -4140,10 +4182,10 @@
         <v>413893</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>151</v>
+        <v>232</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>232</v>
+        <v>45</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>233</v>
@@ -4217,10 +4259,10 @@
         <v>234</v>
       </c>
       <c r="F7" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>235</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>236</v>
       </c>
       <c r="H7" s="7">
         <v>3</v>
@@ -4229,13 +4271,13 @@
         <v>3029</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>15</v>
+        <v>98</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="M7" s="7">
         <v>10</v>
@@ -4244,10 +4286,10 @@
         <v>10127</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>238</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>157</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>239</v>
@@ -4271,7 +4313,7 @@
         <v>241</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>242</v>
+        <v>170</v>
       </c>
       <c r="H8" s="7">
         <v>225</v>
@@ -4280,13 +4322,13 @@
         <v>220001</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>26</v>
+        <v>105</v>
       </c>
       <c r="M8" s="7">
         <v>569</v>
@@ -4295,13 +4337,13 @@
         <v>576183</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>244</v>
       </c>
-      <c r="P8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>245</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4357,7 +4399,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -4369,13 +4411,13 @@
         <v>4421</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>214</v>
+        <v>38</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>74</v>
+        <v>246</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>11</v>
+        <v>247</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -4387,10 +4429,10 @@
         <v>15</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>246</v>
+        <v>211</v>
       </c>
       <c r="M10" s="7">
         <v>4</v>
@@ -4399,13 +4441,13 @@
         <v>4421</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4420,13 +4462,13 @@
         <v>422980</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>222</v>
+        <v>47</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>21</v>
+        <v>251</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>83</v>
+        <v>252</v>
       </c>
       <c r="H11" s="7">
         <v>246</v>
@@ -4438,7 +4480,7 @@
         <v>26</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>250</v>
+        <v>217</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>30</v>
@@ -4450,13 +4492,13 @@
         <v>670119</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4512,7 +4554,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -4524,13 +4566,13 @@
         <v>4261</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>69</v>
+        <v>257</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="H13" s="7">
         <v>3</v>
@@ -4539,13 +4581,13 @@
         <v>3181</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>256</v>
+        <v>223</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>257</v>
+        <v>39</v>
       </c>
       <c r="M13" s="7">
         <v>7</v>
@@ -4554,13 +4596,13 @@
         <v>7441</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>127</v>
+        <v>261</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4575,13 +4617,13 @@
         <v>385315</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>78</v>
+        <v>264</v>
       </c>
       <c r="H14" s="7">
         <v>237</v>
@@ -4590,13 +4632,13 @@
         <v>259450</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>262</v>
+        <v>46</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>263</v>
+        <v>230</v>
       </c>
       <c r="M14" s="7">
         <v>584</v>
@@ -4605,13 +4647,13 @@
         <v>644766</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>135</v>
+        <v>266</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4667,7 +4709,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4679,13 +4721,13 @@
         <v>7966</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -4697,10 +4739,10 @@
         <v>15</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="M16" s="7">
         <v>7</v>
@@ -4712,10 +4754,10 @@
         <v>234</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>235</v>
+        <v>162</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>269</v>
+        <v>99</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4730,13 +4772,13 @@
         <v>274685</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="H17" s="7">
         <v>110</v>
@@ -4748,7 +4790,7 @@
         <v>26</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>30</v>
@@ -4763,10 +4805,10 @@
         <v>240</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>273</v>
+        <v>104</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>242</v>
+        <v>170</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4822,7 +4864,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -4834,13 +4876,13 @@
         <v>4845</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>184</v>
+        <v>113</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>51</v>
+        <v>274</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>16</v>
+        <v>275</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -4852,10 +4894,10 @@
         <v>15</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="M19" s="7">
         <v>5</v>
@@ -4864,13 +4906,13 @@
         <v>4845</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>275</v>
+        <v>110</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>276</v>
+        <v>260</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>188</v>
+        <v>277</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4885,13 +4927,13 @@
         <v>262933</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>192</v>
+        <v>121</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>25</v>
+        <v>278</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>59</v>
+        <v>279</v>
       </c>
       <c r="H20" s="7">
         <v>86</v>
@@ -4903,7 +4945,7 @@
         <v>26</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>30</v>
@@ -4915,13 +4957,13 @@
         <v>367110</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>278</v>
+        <v>119</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>195</v>
+        <v>281</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>279</v>
+        <v>267</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4989,13 +5031,13 @@
         <v>31963</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>33</v>
+        <v>225</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="H22" s="7">
         <v>6</v>
@@ -5004,13 +5046,13 @@
         <v>6210</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="M22" s="7">
         <v>36</v>
@@ -5019,13 +5061,13 @@
         <v>38173</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>284</v>
+        <v>160</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5040,13 +5082,13 @@
         <v>1949273</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>43</v>
+        <v>231</v>
       </c>
       <c r="H23" s="7">
         <v>1075</v>
@@ -5055,13 +5097,13 @@
         <v>1124004</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="M23" s="7">
         <v>2918</v>
@@ -5070,13 +5112,13 @@
         <v>3073277</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>291</v>
+        <v>167</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5154,7 +5196,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BA038D7-9F14-47ED-8ACB-6E46CB6F8CB7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C726C363-F1BA-465E-AEBF-1BCBC148D398}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5281,7 +5323,7 @@
         <v>15</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>293</v>
@@ -5296,7 +5338,7 @@
         <v>294</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>295</v>
@@ -5308,7 +5350,7 @@
         <v>4569</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>296</v>
@@ -5350,7 +5392,7 @@
         <v>300</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="M5" s="7">
         <v>134</v>
@@ -5359,7 +5401,7 @@
         <v>269476</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>301</v>
@@ -5436,10 +5478,10 @@
         <v>15</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="H7" s="7">
         <v>1</v>
@@ -5448,13 +5490,13 @@
         <v>938</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>11</v>
+        <v>303</v>
       </c>
       <c r="M7" s="7">
         <v>1</v>
@@ -5463,13 +5505,13 @@
         <v>938</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>303</v>
+        <v>70</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>15</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>99</v>
+        <v>286</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5487,7 +5529,7 @@
         <v>26</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>30</v>
@@ -5499,10 +5541,10 @@
         <v>150934</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>21</v>
+        <v>304</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>26</v>
@@ -5514,10 +5556,10 @@
         <v>378325</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>304</v>
+        <v>79</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>105</v>
+        <v>291</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>26</v>
@@ -5576,7 +5618,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -5588,13 +5630,13 @@
         <v>3556</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>224</v>
+        <v>305</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>257</v>
+        <v>306</v>
       </c>
       <c r="H10" s="7">
         <v>2</v>
@@ -5603,13 +5645,13 @@
         <v>1353</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>284</v>
+        <v>307</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>104</v>
+        <v>308</v>
       </c>
       <c r="M10" s="7">
         <v>5</v>
@@ -5618,13 +5660,13 @@
         <v>4909</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5639,13 +5681,13 @@
         <v>285067</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>262</v>
+        <v>311</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>230</v>
+        <v>312</v>
       </c>
       <c r="H11" s="7">
         <v>227</v>
@@ -5654,10 +5696,10 @@
         <v>158844</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>291</v>
+        <v>313</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>109</v>
+        <v>314</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>26</v>
@@ -5669,13 +5711,13 @@
         <v>443910</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>307</v>
+        <v>315</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>308</v>
+        <v>316</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5731,7 +5773,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -5743,13 +5785,13 @@
         <v>3344</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>128</v>
+        <v>146</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>309</v>
+        <v>65</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>310</v>
+        <v>317</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -5761,10 +5803,10 @@
         <v>15</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>311</v>
+        <v>318</v>
       </c>
       <c r="M13" s="7">
         <v>4</v>
@@ -5773,13 +5815,13 @@
         <v>3344</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>312</v>
+        <v>319</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>282</v>
+        <v>320</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>313</v>
+        <v>321</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5794,13 +5836,13 @@
         <v>350345</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>137</v>
+        <v>153</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>314</v>
+        <v>322</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>315</v>
+        <v>74</v>
       </c>
       <c r="H14" s="7">
         <v>324</v>
@@ -5812,7 +5854,7 @@
         <v>26</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>316</v>
+        <v>323</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>30</v>
@@ -5824,13 +5866,13 @@
         <v>555435</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>317</v>
+        <v>324</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>318</v>
+        <v>325</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>288</v>
+        <v>326</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5886,7 +5928,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5898,13 +5940,13 @@
         <v>7227</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>319</v>
+        <v>200</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>320</v>
+        <v>327</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>321</v>
+        <v>328</v>
       </c>
       <c r="H16" s="7">
         <v>4</v>
@@ -5913,13 +5955,13 @@
         <v>2475</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>322</v>
+        <v>329</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>100</v>
+        <v>330</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>323</v>
+        <v>331</v>
       </c>
       <c r="M16" s="7">
         <v>12</v>
@@ -5928,13 +5970,13 @@
         <v>9702</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>275</v>
+        <v>333</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>325</v>
+        <v>334</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5949,13 +5991,13 @@
         <v>271200</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>326</v>
+        <v>205</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>328</v>
+        <v>336</v>
       </c>
       <c r="H17" s="7">
         <v>236</v>
@@ -5964,13 +6006,13 @@
         <v>142489</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>329</v>
+        <v>337</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>330</v>
+        <v>338</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>106</v>
+        <v>339</v>
       </c>
       <c r="M17" s="7">
         <v>533</v>
@@ -5979,13 +6021,13 @@
         <v>413689</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>331</v>
+        <v>340</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>332</v>
+        <v>341</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>278</v>
+        <v>342</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6041,7 +6083,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -6053,13 +6095,13 @@
         <v>5848</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>333</v>
+        <v>343</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>128</v>
+        <v>344</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>334</v>
+        <v>235</v>
       </c>
       <c r="H19" s="7">
         <v>2</v>
@@ -6068,13 +6110,13 @@
         <v>903</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>132</v>
+        <v>55</v>
       </c>
       <c r="M19" s="7">
         <v>11</v>
@@ -6083,13 +6125,13 @@
         <v>6751</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>320</v>
+        <v>345</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>335</v>
+        <v>188</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>55</v>
+        <v>346</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6104,13 +6146,13 @@
         <v>302514</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>336</v>
+        <v>347</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>337</v>
+        <v>241</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>137</v>
+        <v>348</v>
       </c>
       <c r="H20" s="7">
         <v>202</v>
@@ -6119,10 +6161,10 @@
         <v>220990</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>140</v>
+        <v>61</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>26</v>
@@ -6134,13 +6176,13 @@
         <v>523505</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>328</v>
+        <v>349</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>63</v>
+        <v>350</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>338</v>
+        <v>194</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6208,13 +6250,13 @@
         <v>19975</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>144</v>
+        <v>351</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>339</v>
+        <v>352</v>
       </c>
       <c r="H22" s="7">
         <v>12</v>
@@ -6223,13 +6265,13 @@
         <v>10238</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>214</v>
+        <v>38</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>340</v>
+        <v>330</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>341</v>
+        <v>353</v>
       </c>
       <c r="M22" s="7">
         <v>36</v>
@@ -6238,13 +6280,13 @@
         <v>30214</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>116</v>
+        <v>354</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>342</v>
+        <v>355</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>343</v>
+        <v>356</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6256,16 +6298,16 @@
         <v>1563</v>
       </c>
       <c r="D23" s="7">
-        <v>1597732</v>
+        <v>1597733</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>344</v>
+        <v>357</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>151</v>
+        <v>358</v>
       </c>
       <c r="H23" s="7">
         <v>1193</v>
@@ -6274,28 +6316,28 @@
         <v>986608</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>222</v>
+        <v>47</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>345</v>
+        <v>359</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="M23" s="7">
         <v>2756</v>
       </c>
       <c r="N23" s="7">
-        <v>2584339</v>
+        <v>2584340</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>124</v>
+        <v>360</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>347</v>
+        <v>361</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>348</v>
+        <v>362</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6307,7 +6349,7 @@
         <v>1587</v>
       </c>
       <c r="D24" s="7">
-        <v>1617707</v>
+        <v>1617708</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>30</v>
@@ -6337,7 +6379,7 @@
         <v>2792</v>
       </c>
       <c r="N24" s="7">
-        <v>2614553</v>
+        <v>2614554</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>30</v>

--- a/data/trans_orig/P32C-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P32C-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B442F533-4E28-40F6-A0D0-4FFDB379A1B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{82A97D11-398F-4C9B-A821-611BAAA79289}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{6B94402D-2938-4F77-AB79-B364F43AA4D4}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{7EE7A8D8-1AC1-43DB-825B-2F232CC9A742}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="363">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1072" uniqueCount="396">
   <si>
     <t>Población según si han bebido alguna vez para calmar los nervios o para evitar la resaca en 2007 (Tasa respuesta: 41,76%)</t>
   </si>
@@ -68,7 +68,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>16/24</t>
+    <t>16-24</t>
   </si>
   <si>
     <t>Sí</t>
@@ -134,7 +134,7 @@
     <t>100%</t>
   </si>
   <si>
-    <t>25/34</t>
+    <t>25-34</t>
   </si>
   <si>
     <t>2,17%</t>
@@ -185,7 +185,7 @@
     <t>98,97%</t>
   </si>
   <si>
-    <t>35/44</t>
+    <t>35-44</t>
   </si>
   <si>
     <t>0,72%</t>
@@ -230,7 +230,7 @@
     <t>99,84%</t>
   </si>
   <si>
-    <t>45/54</t>
+    <t>45-54</t>
   </si>
   <si>
     <t>1,21%</t>
@@ -281,7 +281,7 @@
     <t>99,75%</t>
   </si>
   <si>
-    <t>55/64</t>
+    <t>55-64</t>
   </si>
   <si>
     <t>3,5%</t>
@@ -329,805 +329,904 @@
     <t>98,96%</t>
   </si>
   <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>1,68%</t>
+    <t>65-74</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>99,41%</t>
+  </si>
+  <si>
+    <t>97,11%</t>
+  </si>
+  <si>
+    <t>94,04%</t>
+  </si>
+  <si>
+    <t>99,52%</t>
+  </si>
+  <si>
+    <t>97,57%</t>
+  </si>
+  <si>
+    <t>75 o más</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>10,1%</t>
+  </si>
+  <si>
+    <t>12,61%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>8,05%</t>
+  </si>
+  <si>
+    <t>96,38%</t>
+  </si>
+  <si>
+    <t>89,9%</t>
+  </si>
+  <si>
+    <t>98,91%</t>
+  </si>
+  <si>
+    <t>87,39%</t>
+  </si>
+  <si>
+    <t>97,05%</t>
+  </si>
+  <si>
+    <t>91,95%</t>
+  </si>
+  <si>
+    <t>99,09%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
   </si>
   <si>
     <t>0,41%</t>
   </si>
   <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>98,12%</t>
+  </si>
+  <si>
+    <t>97,41%</t>
+  </si>
+  <si>
+    <t>98,7%</t>
+  </si>
+  <si>
+    <t>98,19%</t>
+  </si>
+  <si>
+    <t>99,59%</t>
+  </si>
+  <si>
+    <t>98,43%</t>
+  </si>
+  <si>
+    <t>97,91%</t>
+  </si>
+  <si>
+    <t>98,87%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si han bebido alguna vez para calmar los nervios o para evitar la resaca en 2012 (Tasa respuesta: 44,06%)</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>97,67%</t>
+  </si>
+  <si>
+    <t>95,25%</t>
+  </si>
+  <si>
+    <t>98,94%</t>
+  </si>
+  <si>
+    <t>99,44%</t>
+  </si>
+  <si>
+    <t>97,37%</t>
+  </si>
+  <si>
+    <t>98,36%</t>
+  </si>
+  <si>
+    <t>97,03%</t>
+  </si>
+  <si>
+    <t>99,26%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>98,23%</t>
+  </si>
+  <si>
+    <t>96,64%</t>
+  </si>
+  <si>
+    <t>99,21%</t>
+  </si>
+  <si>
+    <t>99,05%</t>
+  </si>
+  <si>
+    <t>98,78%</t>
+  </si>
+  <si>
+    <t>97,42%</t>
+  </si>
+  <si>
+    <t>99,45%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>97,46%</t>
+  </si>
+  <si>
+    <t>95,35%</t>
+  </si>
+  <si>
+    <t>98,61%</t>
+  </si>
+  <si>
+    <t>99,14%</t>
+  </si>
+  <si>
+    <t>98,38%</t>
+  </si>
+  <si>
+    <t>97,12%</t>
+  </si>
+  <si>
+    <t>99,17%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>97,55%</t>
+  </si>
+  <si>
+    <t>94,99%</t>
+  </si>
+  <si>
+    <t>98,98%</t>
+  </si>
+  <si>
+    <t>98,41%</t>
+  </si>
+  <si>
+    <t>96,98%</t>
+  </si>
+  <si>
+    <t>99,31%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>6,35%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>98,85%</t>
+  </si>
+  <si>
+    <t>96,84%</t>
+  </si>
+  <si>
+    <t>99,65%</t>
+  </si>
+  <si>
+    <t>93,65%</t>
+  </si>
+  <si>
+    <t>98,64%</t>
+  </si>
+  <si>
+    <t>99,48%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>97,98%</t>
+  </si>
+  <si>
+    <t>94,48%</t>
+  </si>
+  <si>
+    <t>99,37%</t>
+  </si>
+  <si>
+    <t>96,25%</t>
+  </si>
+  <si>
+    <t>98,52%</t>
+  </si>
+  <si>
+    <t>96,13%</t>
+  </si>
+  <si>
+    <t>99,53%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>91,73%</t>
+  </si>
+  <si>
+    <t>98,02%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>97,99%</t>
+  </si>
+  <si>
+    <t>97,23%</t>
+  </si>
+  <si>
+    <t>98,5%</t>
+  </si>
+  <si>
+    <t>99,22%</t>
+  </si>
+  <si>
+    <t>99,9%</t>
+  </si>
+  <si>
+    <t>98,57%</t>
+  </si>
+  <si>
+    <t>98,09%</t>
+  </si>
+  <si>
+    <t>Población según si han bebido alguna vez para calmar los nervios o para evitar la resaca en 2016 (Tasa respuesta: 44,97%)</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>98,65%</t>
+  </si>
+  <si>
+    <t>96,17%</t>
+  </si>
+  <si>
+    <t>99,62%</t>
+  </si>
+  <si>
+    <t>98,88%</t>
+  </si>
+  <si>
+    <t>99,19%</t>
+  </si>
+  <si>
+    <t>99,77%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>98,05%</t>
+  </si>
+  <si>
+    <t>96,29%</t>
+  </si>
+  <si>
+    <t>96,4%</t>
+  </si>
+  <si>
+    <t>98,27%</t>
+  </si>
+  <si>
+    <t>96,91%</t>
+  </si>
+  <si>
+    <t>99,13%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>97,5%</t>
+  </si>
+  <si>
+    <t>99,76%</t>
+  </si>
+  <si>
+    <t>99,34%</t>
+  </si>
+  <si>
+    <t>98,34%</t>
+  </si>
+  <si>
+    <t>99,85%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>97,51%</t>
+  </si>
+  <si>
+    <t>99,73%</t>
+  </si>
+  <si>
+    <t>98,86%</t>
+  </si>
+  <si>
+    <t>97,7%</t>
+  </si>
+  <si>
+    <t>99,51%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>5,67%</t>
+  </si>
+  <si>
     <t>4,16%</t>
   </si>
   <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>98,32%</t>
+    <t>97,18%</t>
+  </si>
+  <si>
+    <t>94,33%</t>
+  </si>
+  <si>
+    <t>98,81%</t>
   </si>
   <si>
     <t>95,84%</t>
   </si>
   <si>
-    <t>99,59%</t>
-  </si>
-  <si>
-    <t>98,63%</t>
-  </si>
-  <si>
-    <t>96,51%</t>
-  </si>
-  <si>
-    <t>99,67%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>98,12%</t>
-  </si>
-  <si>
-    <t>97,41%</t>
-  </si>
-  <si>
-    <t>98,7%</t>
-  </si>
-  <si>
-    <t>99,09%</t>
-  </si>
-  <si>
-    <t>98,19%</t>
-  </si>
-  <si>
-    <t>98,43%</t>
-  </si>
-  <si>
-    <t>97,91%</t>
-  </si>
-  <si>
-    <t>98,87%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si han bebido alguna vez para calmar los nervios o para evitar la resaca en 2012 (Tasa respuesta: 44,06%)</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>97,67%</t>
-  </si>
-  <si>
-    <t>95,25%</t>
-  </si>
-  <si>
-    <t>98,94%</t>
-  </si>
-  <si>
-    <t>99,44%</t>
-  </si>
-  <si>
-    <t>97,37%</t>
-  </si>
-  <si>
-    <t>98,36%</t>
-  </si>
-  <si>
-    <t>97,03%</t>
-  </si>
-  <si>
-    <t>99,26%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>98,23%</t>
-  </si>
-  <si>
-    <t>96,64%</t>
-  </si>
-  <si>
-    <t>99,21%</t>
-  </si>
-  <si>
-    <t>99,05%</t>
-  </si>
-  <si>
-    <t>98,78%</t>
-  </si>
-  <si>
-    <t>97,42%</t>
-  </si>
-  <si>
-    <t>99,45%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>97,46%</t>
-  </si>
-  <si>
-    <t>95,35%</t>
-  </si>
-  <si>
-    <t>98,61%</t>
-  </si>
-  <si>
-    <t>99,14%</t>
-  </si>
-  <si>
-    <t>98,38%</t>
-  </si>
-  <si>
-    <t>97,12%</t>
-  </si>
-  <si>
-    <t>99,17%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>97,55%</t>
-  </si>
-  <si>
-    <t>94,99%</t>
-  </si>
-  <si>
-    <t>98,98%</t>
-  </si>
-  <si>
-    <t>98,41%</t>
-  </si>
-  <si>
-    <t>96,98%</t>
-  </si>
-  <si>
-    <t>99,31%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>6,35%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>98,85%</t>
-  </si>
-  <si>
-    <t>96,84%</t>
-  </si>
-  <si>
-    <t>99,65%</t>
-  </si>
-  <si>
-    <t>93,65%</t>
-  </si>
-  <si>
-    <t>98,64%</t>
-  </si>
-  <si>
-    <t>99,48%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>98,26%</t>
+  </si>
+  <si>
+    <t>94,87%</t>
+  </si>
+  <si>
+    <t>98,74%</t>
+  </si>
+  <si>
+    <t>96,67%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>6,66%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>98,07%</t>
+  </si>
+  <si>
+    <t>93,34%</t>
+  </si>
+  <si>
+    <t>92,68%</t>
+  </si>
+  <si>
+    <t>95,67%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>98,39%</t>
+  </si>
+  <si>
+    <t>97,76%</t>
+  </si>
+  <si>
+    <t>99,81%</t>
+  </si>
+  <si>
+    <t>98,77%</t>
+  </si>
+  <si>
+    <t>98,33%</t>
+  </si>
+  <si>
+    <t>Población según si han bebido alguna vez para calmar los nervios o para evitar la resaca en 2023 (Tasa respuesta: 31,93%)</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>13,51%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>97,3%</t>
+  </si>
+  <si>
+    <t>96,03%</t>
+  </si>
+  <si>
+    <t>86,49%</t>
+  </si>
+  <si>
+    <t>99,83%</t>
+  </si>
+  <si>
+    <t>95,1%</t>
+  </si>
+  <si>
+    <t>99,94%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>99,4%</t>
+  </si>
+  <si>
+    <t>96,79%</t>
+  </si>
+  <si>
+    <t>98,46%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>98,82%</t>
+  </si>
+  <si>
+    <t>96,69%</t>
+  </si>
+  <si>
+    <t>99,64%</t>
+  </si>
+  <si>
+    <t>96,95%</t>
+  </si>
+  <si>
+    <t>97,62%</t>
+  </si>
+  <si>
+    <t>99,66%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>97,49%</t>
+  </si>
+  <si>
+    <t>99,72%</t>
+  </si>
+  <si>
+    <t>98,53%</t>
   </si>
   <si>
     <t>2,62%</t>
   </si>
   <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>98,71%</t>
-  </si>
-  <si>
-    <t>96,44%</t>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
   </si>
   <si>
     <t>97,38%</t>
   </si>
   <si>
-    <t>99,03%</t>
-  </si>
-  <si>
-    <t>97,4%</t>
-  </si>
-  <si>
-    <t>99,69%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>97,99%</t>
-  </si>
-  <si>
-    <t>97,23%</t>
-  </si>
-  <si>
-    <t>98,5%</t>
-  </si>
-  <si>
-    <t>99,22%</t>
-  </si>
-  <si>
-    <t>99,9%</t>
-  </si>
-  <si>
-    <t>98,57%</t>
-  </si>
-  <si>
-    <t>98,09%</t>
-  </si>
-  <si>
-    <t>Población según si han bebido alguna vez para calmar los nervios o para evitar la resaca en 2016 (Tasa respuesta: 44,97%)</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>98,65%</t>
-  </si>
-  <si>
-    <t>96,17%</t>
-  </si>
-  <si>
-    <t>99,62%</t>
-  </si>
-  <si>
-    <t>98,88%</t>
-  </si>
-  <si>
-    <t>99,19%</t>
-  </si>
-  <si>
-    <t>99,77%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>98,05%</t>
-  </si>
-  <si>
-    <t>96,29%</t>
-  </si>
-  <si>
-    <t>96,4%</t>
-  </si>
-  <si>
-    <t>98,27%</t>
-  </si>
-  <si>
-    <t>96,91%</t>
-  </si>
-  <si>
-    <t>99,13%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>97,5%</t>
-  </si>
-  <si>
-    <t>99,76%</t>
-  </si>
-  <si>
-    <t>99,34%</t>
-  </si>
-  <si>
-    <t>98,34%</t>
-  </si>
-  <si>
-    <t>99,85%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>98,91%</t>
-  </si>
-  <si>
-    <t>97,51%</t>
-  </si>
-  <si>
-    <t>99,73%</t>
-  </si>
-  <si>
-    <t>98,86%</t>
-  </si>
-  <si>
-    <t>97,7%</t>
-  </si>
-  <si>
-    <t>99,51%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>97,18%</t>
-  </si>
-  <si>
-    <t>94,33%</t>
-  </si>
-  <si>
-    <t>98,81%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
+    <t>94,72%</t>
+  </si>
+  <si>
+    <t>98,75%</t>
+  </si>
+  <si>
+    <t>95,68%</t>
+  </si>
+  <si>
+    <t>97,69%</t>
+  </si>
+  <si>
+    <t>95,85%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>0,03%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>96,62%</t>
+  </si>
+  <si>
+    <t>99,39%</t>
+  </si>
+  <si>
+    <t>99,25%</t>
+  </si>
+  <si>
+    <t>98,25%</t>
+  </si>
+  <si>
+    <t>99,97%</t>
+  </si>
+  <si>
+    <t>5,58%</t>
+  </si>
+  <si>
+    <t>7,89%</t>
   </si>
   <si>
     <t>2,2%</t>
   </si>
   <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>96,01%</t>
-  </si>
-  <si>
-    <t>99,33%</t>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>94,42%</t>
+  </si>
+  <si>
+    <t>92,11%</t>
   </si>
   <si>
     <t>97,8%</t>
   </si>
   <si>
-    <t>97,22%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>98,39%</t>
-  </si>
-  <si>
-    <t>97,76%</t>
-  </si>
-  <si>
-    <t>99,81%</t>
-  </si>
-  <si>
-    <t>98,77%</t>
-  </si>
-  <si>
-    <t>98,33%</t>
-  </si>
-  <si>
-    <t>Población según si han bebido alguna vez para calmar los nervios o para evitar la resaca en 2023 (Tasa respuesta: 31,93%)</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>13,9%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>97,3%</t>
-  </si>
-  <si>
-    <t>95,95%</t>
-  </si>
-  <si>
-    <t>86,1%</t>
-  </si>
-  <si>
-    <t>94,37%</t>
-  </si>
-  <si>
-    <t>99,94%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>96,71%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>96,46%</t>
-  </si>
-  <si>
-    <t>99,6%</t>
-  </si>
-  <si>
-    <t>99,16%</t>
-  </si>
-  <si>
-    <t>96,87%</t>
-  </si>
-  <si>
-    <t>97,56%</t>
-  </si>
-  <si>
-    <t>99,63%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>97,43%</t>
-  </si>
-  <si>
-    <t>99,41%</t>
-  </si>
-  <si>
-    <t>99,4%</t>
-  </si>
-  <si>
-    <t>98,48%</t>
-  </si>
-  <si>
-    <t>99,83%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>94,77%</t>
-  </si>
-  <si>
-    <t>98,76%</t>
-  </si>
-  <si>
-    <t>98,29%</t>
-  </si>
-  <si>
-    <t>95,65%</t>
-  </si>
-  <si>
-    <t>99,52%</t>
-  </si>
-  <si>
-    <t>97,71%</t>
-  </si>
-  <si>
-    <t>95,9%</t>
-  </si>
-  <si>
-    <t>98,8%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>98,1%</t>
-  </si>
-  <si>
-    <t>98,99%</t>
-  </si>
-  <si>
-    <t>98,73%</t>
-  </si>
-  <si>
-    <t>97,64%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>98,18%</t>
-  </si>
-  <si>
-    <t>99,18%</t>
-  </si>
-  <si>
-    <t>97,78%</t>
-  </si>
-  <si>
-    <t>98,84%</t>
-  </si>
-  <si>
-    <t>98,35%</t>
-  </si>
-  <si>
-    <t>99,2%</t>
+    <t>95,36%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>98,22%</t>
+  </si>
+  <si>
+    <t>99,1%</t>
+  </si>
+  <si>
+    <t>98,04%</t>
+  </si>
+  <si>
+    <t>98,92%</t>
+  </si>
+  <si>
+    <t>99,27%</t>
   </si>
 </sst>
 </file>
@@ -1539,8 +1638,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEA93896-80E1-4979-8EFA-44A29C7E9AD1}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFD16840-2CD0-473B-A542-A2C8D9D8EB67}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2432,19 +2531,19 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D19" s="7">
-        <v>3416</v>
+        <v>769</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>97</v>
       </c>
       <c r="F19" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>99</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -2462,19 +2561,19 @@
         <v>99</v>
       </c>
       <c r="M19" s="7">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N19" s="7">
-        <v>3416</v>
+        <v>769</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>100</v>
       </c>
       <c r="P19" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2483,25 +2582,25 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>203</v>
+        <v>132</v>
       </c>
       <c r="D20" s="7">
-        <v>199518</v>
+        <v>129030</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="F20" s="7" t="s">
-        <v>104</v>
-      </c>
       <c r="G20" s="7" t="s">
-        <v>105</v>
+        <v>26</v>
       </c>
       <c r="H20" s="7">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="I20" s="7">
-        <v>45918</v>
+        <v>29393</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>26</v>
@@ -2513,19 +2612,19 @@
         <v>30</v>
       </c>
       <c r="M20" s="7">
-        <v>248</v>
+        <v>163</v>
       </c>
       <c r="N20" s="7">
-        <v>245436</v>
+        <v>158422</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="P20" s="7" t="s">
-        <v>107</v>
-      </c>
       <c r="Q20" s="7" t="s">
-        <v>108</v>
+        <v>26</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2534,10 +2633,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>207</v>
+        <v>133</v>
       </c>
       <c r="D21" s="7">
-        <v>202934</v>
+        <v>129799</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -2549,10 +2648,10 @@
         <v>30</v>
       </c>
       <c r="H21" s="7">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="I21" s="7">
-        <v>45918</v>
+        <v>29393</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -2564,10 +2663,10 @@
         <v>30</v>
       </c>
       <c r="M21" s="7">
-        <v>252</v>
+        <v>164</v>
       </c>
       <c r="N21" s="7">
-        <v>248852</v>
+        <v>159191</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -2581,55 +2680,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>107</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>35</v>
+        <v>3</v>
       </c>
       <c r="D22" s="7">
-        <v>35262</v>
+        <v>2647</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="G22" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="G22" s="7" t="s">
+      <c r="H22" s="7">
+        <v>0</v>
+      </c>
+      <c r="I22" s="7">
+        <v>0</v>
+      </c>
+      <c r="J22" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="H22" s="7">
-        <v>7</v>
-      </c>
-      <c r="I22" s="7">
-        <v>8180</v>
-      </c>
-      <c r="J22" s="7" t="s">
+      <c r="M22" s="7">
+        <v>3</v>
+      </c>
+      <c r="N22" s="7">
+        <v>2647</v>
+      </c>
+      <c r="O22" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="K22" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="L22" s="7" t="s">
+      <c r="P22" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="M22" s="7">
-        <v>42</v>
-      </c>
-      <c r="N22" s="7">
-        <v>43443</v>
-      </c>
-      <c r="O22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2638,49 +2737,49 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>1810</v>
+        <v>71</v>
       </c>
       <c r="D23" s="7">
-        <v>1844656</v>
+        <v>70488</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="H23" s="7">
+        <v>14</v>
+      </c>
+      <c r="I23" s="7">
+        <v>16525</v>
+      </c>
+      <c r="J23" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="K23" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="G23" s="7" t="s">
+      <c r="L23" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M23" s="7">
+        <v>85</v>
+      </c>
+      <c r="N23" s="7">
+        <v>87013</v>
+      </c>
+      <c r="O23" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="H23" s="7">
-        <v>867</v>
-      </c>
-      <c r="I23" s="7">
-        <v>886404</v>
-      </c>
-      <c r="J23" s="7" t="s">
+      <c r="P23" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="K23" s="7" t="s">
+      <c r="Q23" s="7" t="s">
         <v>121</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="M23" s="7">
-        <v>2677</v>
-      </c>
-      <c r="N23" s="7">
-        <v>2731060</v>
-      </c>
-      <c r="O23" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2689,63 +2788,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>74</v>
+      </c>
+      <c r="D24" s="7">
+        <v>73135</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24" s="7">
+        <v>14</v>
+      </c>
+      <c r="I24" s="7">
+        <v>16525</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M24" s="7">
+        <v>88</v>
+      </c>
+      <c r="N24" s="7">
+        <v>89660</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>35</v>
+      </c>
+      <c r="D25" s="7">
+        <v>35262</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="H25" s="7">
+        <v>7</v>
+      </c>
+      <c r="I25" s="7">
+        <v>8180</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="M25" s="7">
+        <v>42</v>
+      </c>
+      <c r="N25" s="7">
+        <v>43443</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="7">
+        <v>1810</v>
+      </c>
+      <c r="D26" s="7">
+        <v>1844656</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="H26" s="7">
+        <v>867</v>
+      </c>
+      <c r="I26" s="7">
+        <v>886404</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="M26" s="7">
+        <v>2677</v>
+      </c>
+      <c r="N26" s="7">
+        <v>2731060</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>1845</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D27" s="7">
         <v>1879918</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="E27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" s="7">
         <v>874</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I27" s="7">
         <v>894584</v>
       </c>
-      <c r="J24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="J27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M27" s="7">
         <v>2719</v>
       </c>
-      <c r="N24" s="7">
+      <c r="N27" s="7">
         <v>2774503</v>
       </c>
-      <c r="O24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>125</v>
+      <c r="O27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>138</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2758,8 +3013,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{854FD249-9026-48C0-AD03-09FD23F507CA}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50215F20-BA16-45F3-AC40-1E768E91F00B}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2775,7 +3030,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>126</v>
+        <v>139</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2882,13 +3137,13 @@
         <v>6503</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>129</v>
+        <v>142</v>
       </c>
       <c r="H4" s="7">
         <v>1</v>
@@ -2897,13 +3152,13 @@
         <v>1012</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>131</v>
+        <v>144</v>
       </c>
       <c r="M4" s="7">
         <v>8</v>
@@ -2912,13 +3167,13 @@
         <v>7515</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>132</v>
+        <v>145</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>133</v>
+        <v>146</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>134</v>
+        <v>147</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2933,13 +3188,13 @@
         <v>272036</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>135</v>
+        <v>148</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>136</v>
+        <v>149</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="H5" s="7">
         <v>174</v>
@@ -2948,10 +3203,10 @@
         <v>179550</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>138</v>
+        <v>151</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>139</v>
+        <v>152</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>26</v>
@@ -2963,13 +3218,13 @@
         <v>451586</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>140</v>
+        <v>153</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>141</v>
+        <v>154</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>142</v>
+        <v>155</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3037,13 +3292,13 @@
         <v>8237</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>143</v>
+        <v>156</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>144</v>
+        <v>157</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>145</v>
+        <v>158</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -3058,7 +3313,7 @@
         <v>84</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>146</v>
+        <v>159</v>
       </c>
       <c r="M7" s="7">
         <v>8</v>
@@ -3067,13 +3322,13 @@
         <v>8237</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>147</v>
+        <v>160</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>148</v>
+        <v>161</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>149</v>
+        <v>162</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3088,13 +3343,13 @@
         <v>456691</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>150</v>
+        <v>163</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>151</v>
+        <v>164</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>152</v>
+        <v>165</v>
       </c>
       <c r="H8" s="7">
         <v>201</v>
@@ -3106,7 +3361,7 @@
         <v>26</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>153</v>
+        <v>166</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>30</v>
@@ -3118,13 +3373,13 @@
         <v>669128</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>154</v>
+        <v>167</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>155</v>
+        <v>168</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>156</v>
+        <v>169</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3192,13 +3447,13 @@
         <v>10830</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>157</v>
+        <v>170</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>158</v>
+        <v>171</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>159</v>
+        <v>172</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -3213,7 +3468,7 @@
         <v>84</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>160</v>
+        <v>173</v>
       </c>
       <c r="M10" s="7">
         <v>11</v>
@@ -3222,13 +3477,13 @@
         <v>10830</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>161</v>
+        <v>174</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>162</v>
+        <v>175</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>163</v>
+        <v>176</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3243,13 +3498,13 @@
         <v>416371</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>165</v>
+        <v>178</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>166</v>
+        <v>179</v>
       </c>
       <c r="H11" s="7">
         <v>222</v>
@@ -3261,7 +3516,7 @@
         <v>26</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>167</v>
+        <v>180</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>30</v>
@@ -3273,13 +3528,13 @@
         <v>658290</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>168</v>
+        <v>181</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>169</v>
+        <v>182</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>170</v>
+        <v>183</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3347,13 +3602,13 @@
         <v>9636</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>171</v>
+        <v>184</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>14</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>172</v>
+        <v>185</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -3368,7 +3623,7 @@
         <v>84</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>173</v>
+        <v>186</v>
       </c>
       <c r="M13" s="7">
         <v>8</v>
@@ -3377,13 +3632,13 @@
         <v>9636</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>174</v>
+        <v>187</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>175</v>
+        <v>188</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>176</v>
+        <v>189</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3398,10 +3653,10 @@
         <v>384472</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>177</v>
+        <v>190</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>178</v>
+        <v>191</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>24</v>
@@ -3416,7 +3671,7 @@
         <v>26</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>179</v>
+        <v>192</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>30</v>
@@ -3428,13 +3683,13 @@
         <v>597863</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>180</v>
+        <v>193</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>181</v>
+        <v>194</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>182</v>
+        <v>195</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3502,13 +3757,13 @@
         <v>2621</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>183</v>
+        <v>196</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>184</v>
+        <v>197</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>185</v>
+        <v>198</v>
       </c>
       <c r="H16" s="7">
         <v>2</v>
@@ -3517,13 +3772,13 @@
         <v>2026</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>113</v>
+        <v>126</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>186</v>
+        <v>199</v>
       </c>
       <c r="M16" s="7">
         <v>5</v>
@@ -3532,13 +3787,13 @@
         <v>4647</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>187</v>
+        <v>200</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>188</v>
+        <v>201</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>176</v>
+        <v>189</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3553,13 +3808,13 @@
         <v>225857</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>189</v>
+        <v>202</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>190</v>
+        <v>203</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>191</v>
+        <v>204</v>
       </c>
       <c r="H17" s="7">
         <v>97</v>
@@ -3568,10 +3823,10 @@
         <v>110168</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>121</v>
+        <v>133</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>192</v>
+        <v>205</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>26</v>
@@ -3583,13 +3838,13 @@
         <v>336024</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>193</v>
+        <v>206</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>181</v>
+        <v>194</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>194</v>
+        <v>207</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3657,13 +3912,13 @@
         <v>3093</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>195</v>
+        <v>208</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>98</v>
+        <v>209</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>196</v>
+        <v>210</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -3678,7 +3933,7 @@
         <v>84</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>197</v>
+        <v>211</v>
       </c>
       <c r="M19" s="7">
         <v>3</v>
@@ -3687,13 +3942,13 @@
         <v>3093</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>198</v>
+        <v>212</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>199</v>
+        <v>213</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>200</v>
+        <v>214</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3702,49 +3957,49 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>209</v>
+        <v>135</v>
       </c>
       <c r="D20" s="7">
-        <v>235889</v>
+        <v>150358</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>201</v>
+        <v>215</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>202</v>
+        <v>216</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>105</v>
+        <v>217</v>
       </c>
       <c r="H20" s="7">
-        <v>72</v>
+        <v>50</v>
       </c>
       <c r="I20" s="7">
-        <v>80046</v>
+        <v>55678</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>26</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>203</v>
+        <v>218</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>30</v>
       </c>
       <c r="M20" s="7">
-        <v>281</v>
+        <v>185</v>
       </c>
       <c r="N20" s="7">
-        <v>315935</v>
+        <v>206035</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>204</v>
+        <v>219</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>205</v>
+        <v>220</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>206</v>
+        <v>221</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3753,10 +4008,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>212</v>
+        <v>138</v>
       </c>
       <c r="D21" s="7">
-        <v>238982</v>
+        <v>153451</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -3768,10 +4023,10 @@
         <v>30</v>
       </c>
       <c r="H21" s="7">
-        <v>72</v>
+        <v>50</v>
       </c>
       <c r="I21" s="7">
-        <v>80046</v>
+        <v>55678</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -3783,10 +4038,10 @@
         <v>30</v>
       </c>
       <c r="M21" s="7">
-        <v>284</v>
+        <v>188</v>
       </c>
       <c r="N21" s="7">
-        <v>319028</v>
+        <v>209128</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -3800,55 +4055,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>107</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="D22" s="7">
-        <v>40920</v>
+        <v>0</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>207</v>
+        <v>15</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>208</v>
+        <v>84</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>209</v>
+        <v>85</v>
       </c>
       <c r="H22" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I22" s="7">
-        <v>3038</v>
+        <v>0</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>65</v>
+        <v>15</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>210</v>
+        <v>84</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>211</v>
+        <v>222</v>
       </c>
       <c r="M22" s="7">
-        <v>43</v>
+        <v>0</v>
       </c>
       <c r="N22" s="7">
-        <v>43958</v>
+        <v>0</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>212</v>
+        <v>15</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>213</v>
+        <v>223</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3857,49 +4112,49 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>1871</v>
+        <v>74</v>
       </c>
       <c r="D23" s="7">
-        <v>1991315</v>
+        <v>85532</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>214</v>
+        <v>26</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>215</v>
+        <v>92</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>216</v>
+        <v>30</v>
       </c>
       <c r="H23" s="7">
-        <v>953</v>
+        <v>22</v>
       </c>
       <c r="I23" s="7">
-        <v>1037511</v>
+        <v>24368</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>74</v>
+        <v>26</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>217</v>
+        <v>224</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>218</v>
+        <v>30</v>
       </c>
       <c r="M23" s="7">
-        <v>2824</v>
+        <v>96</v>
       </c>
       <c r="N23" s="7">
-        <v>3028826</v>
+        <v>109900</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>219</v>
+        <v>26</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>95</v>
+        <v>30</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3908,63 +4163,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>74</v>
+      </c>
+      <c r="D24" s="7">
+        <v>85532</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24" s="7">
+        <v>22</v>
+      </c>
+      <c r="I24" s="7">
+        <v>24368</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M24" s="7">
+        <v>96</v>
+      </c>
+      <c r="N24" s="7">
+        <v>109900</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>40</v>
+      </c>
+      <c r="D25" s="7">
+        <v>40920</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="H25" s="7">
+        <v>3</v>
+      </c>
+      <c r="I25" s="7">
+        <v>3038</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="M25" s="7">
+        <v>43</v>
+      </c>
+      <c r="N25" s="7">
+        <v>43958</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="7">
+        <v>1871</v>
+      </c>
+      <c r="D26" s="7">
+        <v>1991315</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="H26" s="7">
+        <v>953</v>
+      </c>
+      <c r="I26" s="7">
+        <v>1037511</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="M26" s="7">
+        <v>2824</v>
+      </c>
+      <c r="N26" s="7">
+        <v>3028827</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>1911</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D27" s="7">
         <v>2032235</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="E27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" s="7">
         <v>956</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I27" s="7">
         <v>1040549</v>
       </c>
-      <c r="J24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="J27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M27" s="7">
         <v>2867</v>
       </c>
-      <c r="N24" s="7">
-        <v>3072784</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>125</v>
+      <c r="N27" s="7">
+        <v>3072785</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>138</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3977,8 +4388,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEBE4FF3-C5AD-42B7-B02F-C904269301AB}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1F1480B-64A8-4BB4-A24F-FC779FB7BE0F}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3994,7 +4405,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>221</v>
+        <v>240</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4101,13 +4512,13 @@
         <v>3374</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>222</v>
+        <v>241</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>223</v>
+        <v>242</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>224</v>
+        <v>243</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -4122,7 +4533,7 @@
         <v>84</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>225</v>
+        <v>244</v>
       </c>
       <c r="M4" s="7">
         <v>3</v>
@@ -4131,10 +4542,10 @@
         <v>3374</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>226</v>
+        <v>245</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>227</v>
+        <v>246</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>37</v>
@@ -4152,13 +4563,13 @@
         <v>247176</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>228</v>
+        <v>247</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>229</v>
+        <v>248</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>230</v>
+        <v>249</v>
       </c>
       <c r="H5" s="7">
         <v>171</v>
@@ -4170,7 +4581,7 @@
         <v>26</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>231</v>
+        <v>250</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>30</v>
@@ -4182,13 +4593,13 @@
         <v>413893</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>232</v>
+        <v>251</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>45</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>233</v>
+        <v>252</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4256,13 +4667,13 @@
         <v>7097</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>234</v>
+        <v>253</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>162</v>
+        <v>175</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>235</v>
+        <v>254</v>
       </c>
       <c r="H7" s="7">
         <v>3</v>
@@ -4271,13 +4682,13 @@
         <v>3029</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>187</v>
+        <v>200</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>98</v>
+        <v>125</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>236</v>
+        <v>255</v>
       </c>
       <c r="M7" s="7">
         <v>10</v>
@@ -4286,13 +4697,13 @@
         <v>10127</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>237</v>
+        <v>256</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>238</v>
+        <v>257</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>239</v>
+        <v>258</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4307,13 +4718,13 @@
         <v>356183</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>240</v>
+        <v>259</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>241</v>
+        <v>260</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>170</v>
+        <v>183</v>
       </c>
       <c r="H8" s="7">
         <v>225</v>
@@ -4322,13 +4733,13 @@
         <v>220001</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>193</v>
+        <v>206</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>242</v>
+        <v>261</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>105</v>
+        <v>134</v>
       </c>
       <c r="M8" s="7">
         <v>569</v>
@@ -4337,13 +4748,13 @@
         <v>576183</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>243</v>
+        <v>262</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>244</v>
+        <v>263</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>245</v>
+        <v>264</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4414,10 +4825,10 @@
         <v>38</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>246</v>
+        <v>265</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>247</v>
+        <v>266</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -4432,7 +4843,7 @@
         <v>84</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>211</v>
+        <v>230</v>
       </c>
       <c r="M10" s="7">
         <v>4</v>
@@ -4441,13 +4852,13 @@
         <v>4421</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>248</v>
+        <v>267</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>249</v>
+        <v>268</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>250</v>
+        <v>269</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4465,10 +4876,10 @@
         <v>47</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>251</v>
+        <v>270</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>252</v>
+        <v>271</v>
       </c>
       <c r="H11" s="7">
         <v>246</v>
@@ -4480,7 +4891,7 @@
         <v>26</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>217</v>
+        <v>236</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>30</v>
@@ -4492,13 +4903,13 @@
         <v>670119</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>253</v>
+        <v>272</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>254</v>
+        <v>273</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>255</v>
+        <v>274</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4566,13 +4977,13 @@
         <v>4261</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>256</v>
+        <v>109</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>257</v>
+        <v>275</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>258</v>
+        <v>276</v>
       </c>
       <c r="H13" s="7">
         <v>3</v>
@@ -4584,7 +4995,7 @@
         <v>64</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>223</v>
+        <v>242</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>39</v>
@@ -4596,13 +5007,13 @@
         <v>7441</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>259</v>
+        <v>277</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>260</v>
+        <v>278</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>261</v>
+        <v>279</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4617,13 +5028,13 @@
         <v>385315</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>262</v>
+        <v>117</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>263</v>
+        <v>280</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>264</v>
+        <v>281</v>
       </c>
       <c r="H14" s="7">
         <v>237</v>
@@ -4638,7 +5049,7 @@
         <v>46</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>230</v>
+        <v>249</v>
       </c>
       <c r="M14" s="7">
         <v>584</v>
@@ -4647,13 +5058,13 @@
         <v>644766</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>265</v>
+        <v>282</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>266</v>
+        <v>283</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>267</v>
+        <v>284</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4721,13 +5132,13 @@
         <v>7966</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>268</v>
+        <v>285</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>269</v>
+        <v>286</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>270</v>
+        <v>287</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -4742,7 +5153,7 @@
         <v>84</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>237</v>
+        <v>256</v>
       </c>
       <c r="M16" s="7">
         <v>7</v>
@@ -4751,13 +5162,13 @@
         <v>7966</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>234</v>
+        <v>253</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>162</v>
+        <v>175</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>99</v>
+        <v>288</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4772,13 +5183,13 @@
         <v>274685</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>271</v>
+        <v>289</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>272</v>
+        <v>290</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>273</v>
+        <v>291</v>
       </c>
       <c r="H17" s="7">
         <v>110</v>
@@ -4790,7 +5201,7 @@
         <v>26</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>243</v>
+        <v>262</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>30</v>
@@ -4802,13 +5213,13 @@
         <v>401205</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>240</v>
+        <v>259</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>104</v>
+        <v>292</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>170</v>
+        <v>183</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4870,19 +5281,19 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D19" s="7">
-        <v>4845</v>
+        <v>3043</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>113</v>
+        <v>293</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>274</v>
+        <v>201</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>275</v>
+        <v>294</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -4897,22 +5308,22 @@
         <v>84</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>276</v>
+        <v>258</v>
       </c>
       <c r="M19" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N19" s="7">
-        <v>4845</v>
+        <v>3043</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>110</v>
+        <v>295</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>260</v>
+        <v>242</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>277</v>
+        <v>296</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4921,49 +5332,49 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>272</v>
+        <v>167</v>
       </c>
       <c r="D20" s="7">
-        <v>262933</v>
+        <v>171596</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>121</v>
+        <v>297</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>278</v>
+        <v>298</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>279</v>
+        <v>207</v>
       </c>
       <c r="H20" s="7">
-        <v>86</v>
+        <v>61</v>
       </c>
       <c r="I20" s="7">
-        <v>104177</v>
+        <v>67603</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>26</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>280</v>
+        <v>263</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>30</v>
       </c>
       <c r="M20" s="7">
-        <v>358</v>
+        <v>228</v>
       </c>
       <c r="N20" s="7">
-        <v>367110</v>
+        <v>239199</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>119</v>
+        <v>299</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>281</v>
+        <v>300</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>267</v>
+        <v>249</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4972,10 +5383,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>277</v>
+        <v>170</v>
       </c>
       <c r="D21" s="7">
-        <v>267778</v>
+        <v>174639</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -4987,10 +5398,10 @@
         <v>30</v>
       </c>
       <c r="H21" s="7">
-        <v>86</v>
+        <v>61</v>
       </c>
       <c r="I21" s="7">
-        <v>104177</v>
+        <v>67603</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -5002,10 +5413,10 @@
         <v>30</v>
       </c>
       <c r="M21" s="7">
-        <v>363</v>
+        <v>231</v>
       </c>
       <c r="N21" s="7">
-        <v>371955</v>
+        <v>242242</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -5019,55 +5430,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>107</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="D22" s="7">
-        <v>31963</v>
+        <v>1802</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>282</v>
+        <v>301</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>225</v>
+        <v>15</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>283</v>
+        <v>302</v>
       </c>
       <c r="H22" s="7">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I22" s="7">
-        <v>6210</v>
+        <v>0</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>148</v>
+        <v>15</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>284</v>
+        <v>84</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>256</v>
+        <v>303</v>
       </c>
       <c r="M22" s="7">
-        <v>36</v>
+        <v>2</v>
       </c>
       <c r="N22" s="7">
-        <v>38173</v>
+        <v>1802</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>285</v>
+        <v>171</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>160</v>
+        <v>15</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>286</v>
+        <v>304</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5076,49 +5487,49 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>1843</v>
+        <v>105</v>
       </c>
       <c r="D23" s="7">
-        <v>1949273</v>
+        <v>91337</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>287</v>
+        <v>305</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>288</v>
+        <v>306</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>231</v>
+        <v>26</v>
       </c>
       <c r="H23" s="7">
-        <v>1075</v>
+        <v>25</v>
       </c>
       <c r="I23" s="7">
-        <v>1124004</v>
+        <v>36575</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>156</v>
+        <v>26</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>262</v>
+        <v>307</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>289</v>
+        <v>30</v>
       </c>
       <c r="M23" s="7">
-        <v>2918</v>
+        <v>130</v>
       </c>
       <c r="N23" s="7">
-        <v>3073277</v>
+        <v>127911</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>290</v>
+        <v>179</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>291</v>
+        <v>308</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>167</v>
+        <v>26</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5127,63 +5538,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>107</v>
+      </c>
+      <c r="D24" s="7">
+        <v>93139</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24" s="7">
+        <v>25</v>
+      </c>
+      <c r="I24" s="7">
+        <v>36575</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M24" s="7">
+        <v>132</v>
+      </c>
+      <c r="N24" s="7">
+        <v>129713</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>30</v>
+      </c>
+      <c r="D25" s="7">
+        <v>31963</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="H25" s="7">
+        <v>6</v>
+      </c>
+      <c r="I25" s="7">
+        <v>6210</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="M25" s="7">
+        <v>36</v>
+      </c>
+      <c r="N25" s="7">
+        <v>38173</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="7">
+        <v>1843</v>
+      </c>
+      <c r="D26" s="7">
+        <v>1949273</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="H26" s="7">
+        <v>1075</v>
+      </c>
+      <c r="I26" s="7">
+        <v>1124004</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="M26" s="7">
+        <v>2918</v>
+      </c>
+      <c r="N26" s="7">
+        <v>3073277</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>1873</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D27" s="7">
         <v>1981236</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="E27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" s="7">
         <v>1081</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I27" s="7">
         <v>1130214</v>
       </c>
-      <c r="J24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="J27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M27" s="7">
         <v>2954</v>
       </c>
-      <c r="N24" s="7">
+      <c r="N27" s="7">
         <v>3111450</v>
       </c>
-      <c r="O24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>125</v>
+      <c r="O27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>138</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -5196,8 +5763,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C726C363-F1BA-465E-AEBF-1BCBC148D398}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFA3F2DA-BA7F-4FE1-8055-7CE8148C4A3D}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -5213,7 +5780,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>292</v>
+        <v>319</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5326,37 +5893,37 @@
         <v>84</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>293</v>
+        <v>320</v>
       </c>
       <c r="H4" s="7">
         <v>3</v>
       </c>
       <c r="I4" s="7">
-        <v>4569</v>
+        <v>4001</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>294</v>
+        <v>321</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>249</v>
+        <v>322</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>295</v>
+        <v>323</v>
       </c>
       <c r="M4" s="7">
         <v>3</v>
       </c>
       <c r="N4" s="7">
-        <v>4569</v>
+        <v>4001</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>286</v>
+        <v>212</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>296</v>
+        <v>324</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>297</v>
+        <v>325</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5368,13 +5935,13 @@
         <v>70</v>
       </c>
       <c r="D5" s="7">
-        <v>161216</v>
+        <v>169903</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>26</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>298</v>
+        <v>326</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>30</v>
@@ -5383,31 +5950,31 @@
         <v>64</v>
       </c>
       <c r="I5" s="7">
-        <v>108261</v>
+        <v>96850</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>299</v>
+        <v>327</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>300</v>
+        <v>328</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>255</v>
+        <v>329</v>
       </c>
       <c r="M5" s="7">
         <v>134</v>
       </c>
       <c r="N5" s="7">
-        <v>269476</v>
+        <v>266752</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>291</v>
+        <v>219</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>301</v>
+        <v>330</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>302</v>
+        <v>331</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5419,7 +5986,7 @@
         <v>70</v>
       </c>
       <c r="D6" s="7">
-        <v>161216</v>
+        <v>169903</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -5434,7 +6001,7 @@
         <v>67</v>
       </c>
       <c r="I6" s="7">
-        <v>112830</v>
+        <v>100851</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -5449,7 +6016,7 @@
         <v>137</v>
       </c>
       <c r="N6" s="7">
-        <v>274045</v>
+        <v>270753</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -5481,37 +6048,37 @@
         <v>84</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>285</v>
+        <v>312</v>
       </c>
       <c r="H7" s="7">
         <v>1</v>
       </c>
       <c r="I7" s="7">
-        <v>938</v>
+        <v>857</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>53</v>
+        <v>332</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>303</v>
+        <v>333</v>
       </c>
       <c r="M7" s="7">
         <v>1</v>
       </c>
       <c r="N7" s="7">
-        <v>938</v>
+        <v>857</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>70</v>
+        <v>246</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>15</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>286</v>
+        <v>334</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5523,13 +6090,13 @@
         <v>155</v>
       </c>
       <c r="D8" s="7">
-        <v>227391</v>
+        <v>230135</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>26</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>290</v>
+        <v>317</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>30</v>
@@ -5538,13 +6105,13 @@
         <v>140</v>
       </c>
       <c r="I8" s="7">
-        <v>150934</v>
+        <v>141396</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>60</v>
+        <v>335</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>304</v>
+        <v>336</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>26</v>
@@ -5553,13 +6120,13 @@
         <v>295</v>
       </c>
       <c r="N8" s="7">
-        <v>378325</v>
+        <v>371531</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>79</v>
+        <v>252</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>291</v>
+        <v>337</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>26</v>
@@ -5574,7 +6141,7 @@
         <v>155</v>
       </c>
       <c r="D9" s="7">
-        <v>227391</v>
+        <v>230135</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -5589,7 +6156,7 @@
         <v>141</v>
       </c>
       <c r="I9" s="7">
-        <v>151872</v>
+        <v>142253</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -5604,7 +6171,7 @@
         <v>296</v>
       </c>
       <c r="N9" s="7">
-        <v>379263</v>
+        <v>372388</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -5627,46 +6194,46 @@
         <v>3</v>
       </c>
       <c r="D10" s="7">
-        <v>3556</v>
+        <v>3323</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>285</v>
+        <v>338</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>305</v>
+        <v>339</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>306</v>
+        <v>340</v>
       </c>
       <c r="H10" s="7">
         <v>2</v>
       </c>
       <c r="I10" s="7">
-        <v>1353</v>
+        <v>1253</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>307</v>
+        <v>175</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>308</v>
+        <v>341</v>
       </c>
       <c r="M10" s="7">
         <v>5</v>
       </c>
       <c r="N10" s="7">
-        <v>4909</v>
+        <v>4576</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>256</v>
+        <v>141</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>309</v>
+        <v>342</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>310</v>
+        <v>343</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5678,28 +6245,28 @@
         <v>267</v>
       </c>
       <c r="D11" s="7">
-        <v>285067</v>
+        <v>278860</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>290</v>
+        <v>344</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>311</v>
+        <v>345</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>312</v>
+        <v>346</v>
       </c>
       <c r="H11" s="7">
         <v>227</v>
       </c>
       <c r="I11" s="7">
-        <v>158844</v>
+        <v>149561</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>313</v>
+        <v>183</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>314</v>
+        <v>347</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>26</v>
@@ -5708,16 +6275,16 @@
         <v>494</v>
       </c>
       <c r="N11" s="7">
-        <v>443910</v>
+        <v>428421</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>262</v>
+        <v>150</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>315</v>
+        <v>348</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>316</v>
+        <v>349</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5729,7 +6296,7 @@
         <v>270</v>
       </c>
       <c r="D12" s="7">
-        <v>288623</v>
+        <v>282183</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -5744,7 +6311,7 @@
         <v>229</v>
       </c>
       <c r="I12" s="7">
-        <v>160197</v>
+        <v>150814</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -5759,7 +6326,7 @@
         <v>499</v>
       </c>
       <c r="N12" s="7">
-        <v>448819</v>
+        <v>432997</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -5782,16 +6349,16 @@
         <v>4</v>
       </c>
       <c r="D13" s="7">
-        <v>3344</v>
+        <v>3146</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>146</v>
+        <v>113</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>65</v>
+        <v>350</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>317</v>
+        <v>351</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -5806,22 +6373,22 @@
         <v>84</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>318</v>
+        <v>97</v>
       </c>
       <c r="M13" s="7">
         <v>4</v>
       </c>
       <c r="N13" s="7">
-        <v>3344</v>
+        <v>3146</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>319</v>
+        <v>97</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>320</v>
+        <v>54</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>321</v>
+        <v>352</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5833,28 +6400,28 @@
         <v>330</v>
       </c>
       <c r="D14" s="7">
-        <v>350345</v>
+        <v>340958</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>153</v>
+        <v>121</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>322</v>
+        <v>353</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>74</v>
+        <v>354</v>
       </c>
       <c r="H14" s="7">
         <v>324</v>
       </c>
       <c r="I14" s="7">
-        <v>205090</v>
+        <v>192554</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>26</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>323</v>
+        <v>102</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>30</v>
@@ -5863,16 +6430,16 @@
         <v>654</v>
       </c>
       <c r="N14" s="7">
-        <v>555435</v>
+        <v>533512</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>324</v>
+        <v>102</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>325</v>
+        <v>355</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>326</v>
+        <v>62</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5884,7 +6451,7 @@
         <v>334</v>
       </c>
       <c r="D15" s="7">
-        <v>353689</v>
+        <v>344104</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -5899,7 +6466,7 @@
         <v>324</v>
       </c>
       <c r="I15" s="7">
-        <v>205090</v>
+        <v>192554</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -5914,7 +6481,7 @@
         <v>658</v>
       </c>
       <c r="N15" s="7">
-        <v>558779</v>
+        <v>536658</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -5937,46 +6504,46 @@
         <v>8</v>
       </c>
       <c r="D16" s="7">
-        <v>7227</v>
+        <v>6904</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>200</v>
+        <v>356</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>327</v>
+        <v>357</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>328</v>
+        <v>358</v>
       </c>
       <c r="H16" s="7">
         <v>4</v>
       </c>
       <c r="I16" s="7">
-        <v>2475</v>
+        <v>2287</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>329</v>
+        <v>34</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>330</v>
+        <v>213</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>331</v>
+        <v>359</v>
       </c>
       <c r="M16" s="7">
         <v>12</v>
       </c>
       <c r="N16" s="7">
-        <v>9702</v>
+        <v>9191</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>332</v>
+        <v>360</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>333</v>
+        <v>160</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>334</v>
+        <v>361</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5988,46 +6555,46 @@
         <v>297</v>
       </c>
       <c r="D17" s="7">
-        <v>271200</v>
+        <v>256110</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>205</v>
+        <v>362</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>335</v>
+        <v>363</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>336</v>
+        <v>364</v>
       </c>
       <c r="H17" s="7">
         <v>236</v>
       </c>
       <c r="I17" s="7">
-        <v>142489</v>
+        <v>132470</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>337</v>
+        <v>42</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>338</v>
+        <v>365</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>339</v>
+        <v>221</v>
       </c>
       <c r="M17" s="7">
         <v>533</v>
       </c>
       <c r="N17" s="7">
-        <v>413689</v>
+        <v>388580</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>340</v>
+        <v>366</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>341</v>
+        <v>367</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>342</v>
+        <v>167</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6039,7 +6606,7 @@
         <v>305</v>
       </c>
       <c r="D18" s="7">
-        <v>278427</v>
+        <v>263014</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -6054,7 +6621,7 @@
         <v>240</v>
       </c>
       <c r="I18" s="7">
-        <v>144964</v>
+        <v>134757</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -6069,7 +6636,7 @@
         <v>545</v>
       </c>
       <c r="N18" s="7">
-        <v>423391</v>
+        <v>397771</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -6089,49 +6656,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D19" s="7">
-        <v>5848</v>
+        <v>3061</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>343</v>
+        <v>309</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>344</v>
+        <v>368</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>235</v>
+        <v>369</v>
       </c>
       <c r="H19" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I19" s="7">
-        <v>903</v>
+        <v>450</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>98</v>
+        <v>54</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>55</v>
+        <v>160</v>
       </c>
       <c r="M19" s="7">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="N19" s="7">
-        <v>6751</v>
+        <v>3511</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>345</v>
+        <v>370</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>188</v>
+        <v>371</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>346</v>
+        <v>372</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6140,49 +6707,49 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>444</v>
+        <v>283</v>
       </c>
       <c r="D20" s="7">
-        <v>302514</v>
+        <v>186935</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>347</v>
+        <v>314</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>241</v>
+        <v>373</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>348</v>
+        <v>374</v>
       </c>
       <c r="H20" s="7">
-        <v>202</v>
+        <v>149</v>
       </c>
       <c r="I20" s="7">
-        <v>220990</v>
+        <v>278949</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>105</v>
+        <v>62</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>61</v>
+        <v>167</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>26</v>
       </c>
       <c r="M20" s="7">
-        <v>646</v>
+        <v>432</v>
       </c>
       <c r="N20" s="7">
-        <v>523505</v>
+        <v>465884</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>349</v>
+        <v>375</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>350</v>
+        <v>376</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>194</v>
+        <v>377</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6191,10 +6758,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>453</v>
+        <v>288</v>
       </c>
       <c r="D21" s="7">
-        <v>308362</v>
+        <v>189996</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -6206,10 +6773,10 @@
         <v>30</v>
       </c>
       <c r="H21" s="7">
-        <v>204</v>
+        <v>150</v>
       </c>
       <c r="I21" s="7">
-        <v>221893</v>
+        <v>279399</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -6221,10 +6788,10 @@
         <v>30</v>
       </c>
       <c r="M21" s="7">
-        <v>657</v>
+        <v>438</v>
       </c>
       <c r="N21" s="7">
-        <v>530256</v>
+        <v>469395</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -6238,55 +6805,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>107</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="D22" s="7">
-        <v>19975</v>
+        <v>2383</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>285</v>
+        <v>343</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>351</v>
+        <v>143</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>352</v>
+        <v>378</v>
       </c>
       <c r="H22" s="7">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I22" s="7">
-        <v>10238</v>
+        <v>404</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>38</v>
+        <v>82</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>330</v>
+        <v>15</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>353</v>
+        <v>379</v>
       </c>
       <c r="M22" s="7">
-        <v>36</v>
+        <v>5</v>
       </c>
       <c r="N22" s="7">
-        <v>30214</v>
+        <v>2787</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>354</v>
+        <v>380</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>355</v>
+        <v>267</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>356</v>
+        <v>381</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6295,49 +6862,49 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>1563</v>
+        <v>161</v>
       </c>
       <c r="D23" s="7">
-        <v>1597733</v>
+        <v>97652</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>290</v>
+        <v>348</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>357</v>
+        <v>382</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>358</v>
+        <v>151</v>
       </c>
       <c r="H23" s="7">
-        <v>1193</v>
+        <v>53</v>
       </c>
       <c r="I23" s="7">
-        <v>986608</v>
+        <v>26351</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>47</v>
+        <v>91</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>359</v>
+        <v>383</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>339</v>
+        <v>26</v>
       </c>
       <c r="M23" s="7">
-        <v>2756</v>
+        <v>214</v>
       </c>
       <c r="N23" s="7">
-        <v>2584340</v>
+        <v>124004</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>360</v>
+        <v>384</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>361</v>
+        <v>385</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>362</v>
+        <v>272</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6346,63 +6913,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>165</v>
+      </c>
+      <c r="D24" s="7">
+        <v>100035</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24" s="7">
+        <v>54</v>
+      </c>
+      <c r="I24" s="7">
+        <v>26755</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M24" s="7">
+        <v>219</v>
+      </c>
+      <c r="N24" s="7">
+        <v>126791</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>24</v>
+      </c>
+      <c r="D25" s="7">
+        <v>18817</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="H25" s="7">
+        <v>12</v>
+      </c>
+      <c r="I25" s="7">
+        <v>9252</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="M25" s="7">
+        <v>36</v>
+      </c>
+      <c r="N25" s="7">
+        <v>28069</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>389</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="7">
+        <v>1563</v>
+      </c>
+      <c r="D26" s="7">
+        <v>1560554</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>391</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="H26" s="7">
+        <v>1193</v>
+      </c>
+      <c r="I26" s="7">
+        <v>1018130</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>392</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>393</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="M26" s="7">
+        <v>2756</v>
+      </c>
+      <c r="N26" s="7">
+        <v>2578684</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>394</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>1587</v>
       </c>
-      <c r="D24" s="7">
-        <v>1617708</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="D27" s="7">
+        <v>1579371</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" s="7">
         <v>1205</v>
       </c>
-      <c r="I24" s="7">
-        <v>996846</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="I27" s="7">
+        <v>1027382</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M27" s="7">
         <v>2792</v>
       </c>
-      <c r="N24" s="7">
-        <v>2614554</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>125</v>
+      <c r="N27" s="7">
+        <v>2606753</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>138</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
